--- a/Übungen/Netzplan_Übung_3.xlsx
+++ b/Übungen/Netzplan_Übung_3.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="21">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t xml:space="preserve">Dauer = Aufwand(PT) / (Personen * Kapazität(%))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personentage</t>
   </si>
   <si>
     <t xml:space="preserve">B,D</t>
@@ -246,7 +249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -280,6 +283,48 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
       <right style="hair"/>
       <top style="hair"/>
@@ -326,7 +371,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -359,7 +404,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -383,6 +428,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -399,20 +448,60 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -431,39 +520,39 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="12" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="12" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="12" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="10" fillId="12" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -563,10 +652,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:AL21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N10" activeCellId="0" sqref="N10"/>
+      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -575,9 +664,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="3.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="8" min="8" style="1" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="9" min="9" style="0" width="4.6"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="10" min="10" style="2" width="7.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="8" min="8" style="1" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="9" min="9" style="0" width="4.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="10" min="10" style="2" width="7.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="3.24"/>
   </cols>
   <sheetData>
@@ -607,9 +696,33 @@
       <c r="K1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="6"/>
+      <c r="O1" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="P1" s="7"/>
-      <c r="Q1" s="8"/>
+      <c r="Q1" s="8" t="n">
+        <f aca="false">O1+O3</f>
+        <v>2</v>
+      </c>
+      <c r="T1" s="0"/>
+      <c r="U1" s="6" t="n">
+        <f aca="false">Q1</f>
+        <v>2</v>
+      </c>
+      <c r="V1" s="7"/>
+      <c r="W1" s="8" t="n">
+        <f aca="false">U1+U3</f>
+        <v>7</v>
+      </c>
+      <c r="AE1" s="6" t="n">
+        <f aca="false">MAX(W1,AB7)</f>
+        <v>9</v>
+      </c>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="8" t="n">
+        <f aca="false">AE1+AE3</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="2" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -628,59 +741,114 @@
       <c r="F2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="10"/>
+      <c r="G2" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="H2" s="10" t="n">
         <v>6</v>
       </c>
       <c r="I2" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2" s="11" t="n">
         <v>1</v>
       </c>
       <c r="K2" s="12" t="n">
         <f aca="false">ROUND(H2/(I2*J2),0)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O2" s="13" t="s">
         <v>7</v>
       </c>
       <c r="P2" s="13"/>
       <c r="Q2" s="13"/>
+      <c r="T2" s="0"/>
+      <c r="U2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
     </row>
     <row r="3" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14" t="n">
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="I3" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="16" t="n">
+      <c r="I3" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K3" s="17" t="n">
         <f aca="false">ROUND(H3/(I3*J3),0)</f>
-        <v>4</v>
-      </c>
-      <c r="O3" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="O3" s="18" t="n">
         <f aca="false">K2</f>
-        <v>6</v>
-      </c>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="P3" s="19" t="n">
+        <f aca="false">Q4-Q1</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="20" t="n">
+        <f aca="false">MIN(U1,U7,U13)-Q1</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="18" t="n">
+        <f aca="false">K3</f>
+        <v>5</v>
+      </c>
+      <c r="V3" s="19" t="n">
+        <f aca="false">W4-W1</f>
+        <v>2</v>
+      </c>
+      <c r="W3" s="20" t="n">
+        <f aca="false">AE1-W1</f>
+        <v>2</v>
+      </c>
+      <c r="AE3" s="18" t="n">
+        <f aca="false">K8</f>
+        <v>1</v>
+      </c>
+      <c r="AF3" s="19" t="n">
+        <f aca="false">AG4-AG1</f>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="20" t="n">
+        <f aca="false">AJ7-AG1</f>
+        <v>0</v>
+      </c>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="23"/>
     </row>
     <row r="4" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
@@ -709,37 +877,71 @@
         <f aca="false">ROUND(H4/(I4*J4),0)</f>
         <v>3</v>
       </c>
-      <c r="O4" s="20"/>
+      <c r="O4" s="24" t="n">
+        <f aca="false">Q4-O3</f>
+        <v>0</v>
+      </c>
       <c r="P4" s="7"/>
-      <c r="Q4" s="21"/>
+      <c r="Q4" s="25" t="n">
+        <f aca="false">MIN(U4,U10,U16)</f>
+        <v>2</v>
+      </c>
+      <c r="R4" s="26"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="24" t="n">
+        <f aca="false">W4-U3</f>
+        <v>4</v>
+      </c>
+      <c r="V4" s="7"/>
+      <c r="W4" s="25" t="n">
+        <f aca="false">AE4</f>
+        <v>9</v>
+      </c>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="24" t="n">
+        <f aca="false">AG4-AE3</f>
+        <v>9</v>
+      </c>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="25" t="n">
+        <f aca="false">AJ10</f>
+        <v>10</v>
+      </c>
+      <c r="AI4" s="23"/>
     </row>
     <row r="5" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14" t="n">
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="I5" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="16" t="n">
+      <c r="I5" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" s="16" t="n">
+        <f aca="false">120%/2</f>
+        <v>0.6</v>
+      </c>
+      <c r="K5" s="17" t="n">
         <f aca="false">ROUND(H5/(I5*J5),0)</f>
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="AD5" s="29"/>
+      <c r="AI5" s="23"/>
     </row>
     <row r="6" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
@@ -768,33 +970,86 @@
         <f aca="false">ROUND(H6/(I6*J6),0)</f>
         <v>3</v>
       </c>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="0"/>
+      <c r="V6" s="0"/>
+      <c r="W6" s="0"/>
+      <c r="X6" s="0"/>
+      <c r="Y6" s="0"/>
+      <c r="Z6" s="0"/>
+      <c r="AA6" s="0"/>
+      <c r="AB6" s="0"/>
+      <c r="AC6" s="0"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="0"/>
+      <c r="AF6" s="0"/>
+      <c r="AG6" s="0"/>
+      <c r="AI6" s="23"/>
     </row>
     <row r="7" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="16" t="n">
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="17" t="n">
         <f aca="false">ROUND(H7/(I7*J7),0)</f>
         <v>2</v>
+      </c>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="6" t="n">
+        <f aca="false">Q1</f>
+        <v>2</v>
+      </c>
+      <c r="V7" s="7"/>
+      <c r="W7" s="8" t="n">
+        <f aca="false">U7+U9</f>
+        <v>7</v>
+      </c>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="6" t="n">
+        <f aca="false">W7</f>
+        <v>7</v>
+      </c>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="8" t="n">
+        <f aca="false">Z7+Z9</f>
+        <v>9</v>
+      </c>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="0"/>
+      <c r="AF7" s="0"/>
+      <c r="AG7" s="0"/>
+      <c r="AI7" s="23"/>
+      <c r="AJ7" s="6" t="n">
+        <f aca="false">MAX(AG1,AG13)</f>
+        <v>10</v>
+      </c>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="8" t="n">
+        <f aca="false">AJ7+AJ9</f>
+        <v>13</v>
       </c>
     </row>
     <row r="8" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -826,33 +1081,101 @@
         <f aca="false">ROUND(H8/(I8*J8),0)</f>
         <v>1</v>
       </c>
+      <c r="S8" s="27"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="0"/>
+      <c r="Y8" s="0"/>
+      <c r="Z8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="31"/>
+      <c r="AD8" s="27"/>
+      <c r="AE8" s="0"/>
+      <c r="AF8" s="0"/>
+      <c r="AG8" s="0"/>
+      <c r="AI8" s="32"/>
+      <c r="AJ8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="13"/>
     </row>
     <row r="9" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="16" t="n">
-        <f aca="false">ROUND(H9/(I9*J9),0)</f>
-        <v>2</v>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S9" s="27"/>
+      <c r="T9" s="0"/>
+      <c r="U9" s="18" t="n">
+        <f aca="false">K5</f>
+        <v>5</v>
+      </c>
+      <c r="V9" s="19" t="n">
+        <f aca="false">W10-W7</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="20" t="n">
+        <f aca="false">Z7-W7</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="18" t="n">
+        <f aca="false">K7</f>
+        <v>2</v>
+      </c>
+      <c r="AA9" s="19" t="n">
+        <f aca="false">AB10-AB7</f>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="20" t="n">
+        <f aca="false">AE1-AB7</f>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="0"/>
+      <c r="AD9" s="0"/>
+      <c r="AE9" s="0"/>
+      <c r="AF9" s="0"/>
+      <c r="AG9" s="0"/>
+      <c r="AJ9" s="18" t="n">
+        <f aca="false">K10</f>
+        <v>3</v>
+      </c>
+      <c r="AK9" s="19" t="n">
+        <f aca="false">AL10-AL7</f>
+        <v>0</v>
+      </c>
+      <c r="AL9" s="20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -873,39 +1196,260 @@
         <v>9</v>
       </c>
       <c r="I10" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10" s="11" t="n">
         <v>1</v>
       </c>
       <c r="K10" s="12" t="n">
         <f aca="false">ROUND(H10/(I10*J10),0)</f>
+        <v>3</v>
+      </c>
+      <c r="S10" s="29"/>
+      <c r="T10" s="0"/>
+      <c r="U10" s="24" t="n">
+        <f aca="false">W10-U9</f>
+        <v>2</v>
+      </c>
+      <c r="V10" s="7"/>
+      <c r="W10" s="25" t="n">
+        <f aca="false">Z10</f>
+        <v>7</v>
+      </c>
+      <c r="X10" s="0"/>
+      <c r="Y10" s="0"/>
+      <c r="Z10" s="24" t="n">
+        <f aca="false">AB10-Z9</f>
+        <v>7</v>
+      </c>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="25" t="n">
+        <f aca="false">AE4</f>
         <v>9</v>
       </c>
+      <c r="AC10" s="0"/>
+      <c r="AD10" s="0"/>
+      <c r="AE10" s="0"/>
+      <c r="AF10" s="0"/>
+      <c r="AG10" s="0"/>
+      <c r="AI10" s="28"/>
+      <c r="AJ10" s="24" t="n">
+        <f aca="false">AL10-AJ9</f>
+        <v>10</v>
+      </c>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="25" t="n">
+        <f aca="false">AL7</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S11" s="27"/>
+      <c r="AI11" s="27"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="S12" s="27"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AI12" s="27"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S13" s="27"/>
+      <c r="U13" s="6" t="n">
+        <f aca="false">Q1</f>
+        <v>2</v>
+      </c>
+      <c r="V13" s="7"/>
+      <c r="W13" s="8" t="n">
+        <f aca="false">U13+U15</f>
+        <v>5</v>
+      </c>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="6" t="n">
+        <f aca="false">W13</f>
+        <v>5</v>
+      </c>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="8" t="n">
+        <f aca="false">Z13+Z15</f>
+        <v>8</v>
+      </c>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="6" t="n">
+        <f aca="false">AB13</f>
+        <v>8</v>
+      </c>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="8" t="n">
+        <f aca="false">AE13+AE15</f>
+        <v>10</v>
+      </c>
+      <c r="AI13" s="27"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="S14" s="30"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="31"/>
+      <c r="AI14" s="27"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U15" s="18" t="n">
+        <f aca="false">K4</f>
+        <v>3</v>
+      </c>
+      <c r="V15" s="19" t="n">
+        <f aca="false">W16-W13</f>
+        <v>0</v>
+      </c>
+      <c r="W15" s="20" t="n">
+        <f aca="false">Z13-W13</f>
+        <v>0</v>
+      </c>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="18" t="n">
+        <f aca="false">K6</f>
+        <v>3</v>
+      </c>
+      <c r="AA15" s="19" t="n">
+        <f aca="false">AB16-AB13</f>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="20" t="n">
+        <f aca="false">AE13-AB13</f>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="18" t="n">
+        <f aca="false">K9</f>
+        <v>2</v>
+      </c>
+      <c r="AF15" s="19" t="n">
+        <f aca="false">AG16-AG13</f>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="20" t="n">
+        <f aca="false">AJ7-AG13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U16" s="24" t="n">
+        <f aca="false">W16-U15</f>
+        <v>2</v>
+      </c>
+      <c r="V16" s="7"/>
+      <c r="W16" s="25" t="n">
+        <f aca="false">Z16</f>
+        <v>5</v>
+      </c>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="24" t="n">
+        <f aca="false">AB16-Z15</f>
+        <v>5</v>
+      </c>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="25" t="n">
+        <f aca="false">AE16</f>
+        <v>8</v>
+      </c>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="24" t="n">
+        <f aca="false">AG16-AE15</f>
+        <v>8</v>
+      </c>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="25" t="n">
+        <f aca="false">AJ10</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H18" s="0"/>
+      <c r="J18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H19" s="0"/>
+      <c r="J19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H20" s="0"/>
+      <c r="J20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H21" s="0"/>
+      <c r="J21" s="0"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="12">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="AJ8:AL8"/>
     <mergeCell ref="A12:K12"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="Z14:AB14"/>
+    <mergeCell ref="AE14:AG14"/>
   </mergeCells>
-  <conditionalFormatting sqref="P3">
+  <conditionalFormatting sqref="V3:W3 AK9 AF3 AF15 AA9 AA15 V9 V15 P3">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
@@ -933,34 +1477,34 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="3.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="23" width="10.58"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="23" width="3.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="24" width="6.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="23" width="8.48"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="23" width="3.83"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="34" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="34" width="10.58"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="34" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="35" width="6.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="34" width="8.48"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="34" width="3.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="25" t="s">
+      <c r="B1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="37" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="6" t="n">
@@ -997,23 +1541,23 @@
       <c r="AL1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="28" t="n">
+      <c r="B2" s="40"/>
+      <c r="C2" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="E2" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="32" t="n">
+      <c r="E2" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="43" t="n">
         <f aca="false">ROUND(D2/(E2*F2),0)</f>
         <v>3</v>
       </c>
@@ -1051,34 +1595,34 @@
       <c r="AL2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="32" t="n">
+      <c r="D3" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="E3" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="32" t="n">
+      <c r="E3" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="43" t="n">
         <f aca="false">ROUND(D3/(E3*F3),0)</f>
         <v>4</v>
       </c>
-      <c r="I3" s="17" t="n">
+      <c r="I3" s="18" t="n">
         <f aca="false">G2</f>
         <v>3</v>
       </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="20"/>
       <c r="L3" s="0"/>
       <c r="M3" s="0"/>
       <c r="N3" s="0"/>
@@ -1108,31 +1652,31 @@
       <c r="AL3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="32" t="n">
+      <c r="D4" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="E4" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="32" t="n">
+      <c r="E4" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="43" t="n">
         <f aca="false">ROUND(D4/(E4*F4),0)</f>
         <v>3</v>
       </c>
-      <c r="I4" s="20"/>
+      <c r="I4" s="24"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="21"/>
+      <c r="K4" s="25"/>
       <c r="L4" s="0"/>
       <c r="M4" s="0"/>
       <c r="N4" s="0"/>
@@ -1162,25 +1706,25 @@
       <c r="AL4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="32" t="s">
+      <c r="B5" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="32" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="32" t="n">
+      <c r="C5" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="43" t="n">
         <f aca="false">ROUND(D5/(E5*F5),0)</f>
         <v>2</v>
       </c>
@@ -1213,25 +1757,25 @@
       <c r="AL5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="32" t="n">
+      <c r="D6" s="43" t="n">
         <v>9</v>
       </c>
-      <c r="E6" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="32" t="n">
+      <c r="E6" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="43" t="n">
         <f aca="false">ROUND(D6/(E6*F6),0)</f>
         <v>9</v>
       </c>
@@ -1264,25 +1808,25 @@
       <c r="AL6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="32" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="32" t="n">
+      <c r="D7" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="43" t="n">
         <f aca="false">ROUND(D7/(E7*F7),0)</f>
         <v>2</v>
       </c>
@@ -1315,23 +1859,23 @@
       <c r="AL7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="33" t="n">
+      <c r="B8" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="44" t="n">
         <v>6</v>
       </c>
-      <c r="E8" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="32" t="n">
+      <c r="E8" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="43" t="n">
         <f aca="false">ROUND(D8/(E8*F8),0)</f>
         <v>6</v>
       </c>
@@ -1366,7 +1910,7 @@
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="35"/>
+      <c r="F9" s="46"/>
       <c r="L9" s="0"/>
       <c r="M9" s="0"/>
       <c r="N9" s="0"/>
@@ -1398,7 +1942,7 @@
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="35"/>
+      <c r="F10" s="46"/>
       <c r="L10" s="0"/>
       <c r="M10" s="0"/>
       <c r="N10" s="0"/>

--- a/Übungen/Netzplan_Übung_3.xlsx
+++ b/Übungen/Netzplan_Übung_3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="21">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -38,22 +38,19 @@
     <t xml:space="preserve">P</t>
   </si>
   <si>
-    <t xml:space="preserve">K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
     <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">B</t>
   </si>
   <si>
     <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">G</t>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t xml:space="preserve">Personentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K</t>
   </si>
   <si>
     <t xml:space="preserve">B,D</t>
@@ -250,7 +250,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -284,6 +284,41 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
       <right style="hair"/>
       <top style="hair"/>
@@ -330,7 +365,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="51">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -339,6 +374,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -363,7 +402,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -375,6 +414,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -387,36 +430,60 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -427,7 +494,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -435,40 +502,72 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="12" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="12" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="12" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -563,10 +662,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AL21"/>
+  <dimension ref="A1:AN21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O8" activeCellId="0" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -574,52 +673,66 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="3.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="3.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="8" min="8" style="1" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="9" min="9" style="1" width="4.6"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="10" min="10" style="2" width="7.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="3.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="8" min="8" style="1" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="9" min="9" style="1" width="4.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="10" min="10" style="3" width="7.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="12" min="11" style="3" width="7.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="3.24"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+    <row r="1" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="0"/>
-      <c r="S1" s="0"/>
+      <c r="L1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1" s="8"/>
+      <c r="S1" s="9" t="n">
+        <f aca="false">Q1+Q3</f>
+        <v>2</v>
+      </c>
       <c r="T1" s="0"/>
       <c r="U1" s="0"/>
       <c r="V1" s="0"/>
-      <c r="W1" s="0"/>
-      <c r="X1" s="0"/>
-      <c r="Y1" s="0"/>
+      <c r="W1" s="7" t="n">
+        <f aca="false">$S$1</f>
+        <v>2</v>
+      </c>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="9" t="n">
+        <f aca="false">W1+W3</f>
+        <v>7</v>
+      </c>
       <c r="Z1" s="0"/>
       <c r="AA1" s="0"/>
       <c r="AB1" s="0"/>
@@ -627,59 +740,73 @@
       <c r="AD1" s="0"/>
       <c r="AE1" s="0"/>
       <c r="AF1" s="0"/>
-      <c r="AG1" s="0"/>
-      <c r="AH1" s="0"/>
-      <c r="AI1" s="0"/>
+      <c r="AG1" s="7" t="n">
+        <f aca="false">MAX(Y1,AD7)</f>
+        <v>9</v>
+      </c>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="9" t="n">
+        <f aca="false">AG1+AG3</f>
+        <v>10</v>
+      </c>
       <c r="AJ1" s="0"/>
       <c r="AK1" s="0"/>
       <c r="AL1" s="0"/>
-    </row>
-    <row r="2" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="AM1" s="0"/>
+      <c r="AN1" s="0"/>
+    </row>
+    <row r="2" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="G2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="H2" s="10" t="n">
+      <c r="I2" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="14" t="n">
+        <f aca="false">ROUND(H2/(I2*((J2+K2+L2)/I2)),0)</f>
+        <v>2</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="J2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="12" t="n">
-        <f aca="false">ROUND(H2/(I2*J2),0)</f>
-        <v>2</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="0"/>
-      <c r="S2" s="0"/>
-      <c r="T2" s="0"/>
-      <c r="U2" s="0"/>
-      <c r="V2" s="0"/>
-      <c r="W2" s="0"/>
-      <c r="X2" s="0"/>
-      <c r="Y2" s="0"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
       <c r="Z2" s="0"/>
       <c r="AA2" s="0"/>
       <c r="AB2" s="0"/>
@@ -687,153 +814,208 @@
       <c r="AD2" s="0"/>
       <c r="AE2" s="0"/>
       <c r="AF2" s="0"/>
-      <c r="AG2" s="0"/>
-      <c r="AH2" s="0"/>
-      <c r="AI2" s="0"/>
+      <c r="AG2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
       <c r="AJ2" s="0"/>
       <c r="AK2" s="0"/>
       <c r="AL2" s="0"/>
-    </row>
-    <row r="3" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14" t="n">
+      <c r="AM2" s="0"/>
+      <c r="AN2" s="0"/>
+    </row>
+    <row r="3" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="I3" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="15" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K3" s="16" t="n">
-        <f aca="false">ROUND(H3/(I3*J3),0)</f>
+      <c r="I3" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="19" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="K3" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="14" t="n">
+        <f aca="false">ROUND(H3/(I3*((J3+K3+L3)/I3)),0)</f>
         <v>5</v>
       </c>
-      <c r="O3" s="17" t="n">
-        <f aca="false">K2</f>
-        <v>2</v>
-      </c>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="0"/>
-      <c r="S3" s="0"/>
-      <c r="T3" s="0"/>
-      <c r="U3" s="0"/>
-      <c r="V3" s="0"/>
-      <c r="W3" s="0"/>
-      <c r="X3" s="0"/>
-      <c r="Y3" s="0"/>
-      <c r="Z3" s="0"/>
-      <c r="AA3" s="0"/>
-      <c r="AB3" s="0"/>
-      <c r="AC3" s="0"/>
-      <c r="AD3" s="0"/>
-      <c r="AE3" s="0"/>
-      <c r="AF3" s="0"/>
-      <c r="AG3" s="0"/>
-      <c r="AH3" s="0"/>
-      <c r="AI3" s="0"/>
+      <c r="Q3" s="20" t="n">
+        <f aca="false">M2</f>
+        <v>2</v>
+      </c>
+      <c r="R3" s="21" t="n">
+        <f aca="false">S4-S1</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="22" t="n">
+        <f aca="false">MIN(W1,W7,W13)-S1</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="20" t="n">
+        <f aca="false">M3</f>
+        <v>5</v>
+      </c>
+      <c r="X3" s="21" t="n">
+        <f aca="false">Y4-Y1</f>
+        <v>2</v>
+      </c>
+      <c r="Y3" s="22" t="n">
+        <f aca="false">AG1-Y1</f>
+        <v>2</v>
+      </c>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="20" t="n">
+        <f aca="false">M8</f>
+        <v>1</v>
+      </c>
+      <c r="AH3" s="21" t="n">
+        <f aca="false">AI4-AI1</f>
+        <v>0</v>
+      </c>
+      <c r="AI3" s="22" t="n">
+        <f aca="false">$AL$7-AI1</f>
+        <v>0</v>
+      </c>
       <c r="AJ3" s="0"/>
       <c r="AK3" s="0"/>
       <c r="AL3" s="0"/>
-    </row>
-    <row r="4" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="AM3" s="0"/>
+      <c r="AN3" s="0"/>
+    </row>
+    <row r="4" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10" t="n">
+      <c r="B4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="I4" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="12" t="n">
-        <f aca="false">ROUND(H4/(I4*J4),0)</f>
+      <c r="I4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="14" t="n">
+        <f aca="false">ROUND(H4/(I4*((J4+K4+L4)/I4)),0)</f>
         <v>3</v>
       </c>
-      <c r="O4" s="20"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="0"/>
-      <c r="S4" s="0"/>
-      <c r="T4" s="0"/>
-      <c r="U4" s="0"/>
-      <c r="V4" s="0"/>
-      <c r="W4" s="0"/>
-      <c r="X4" s="0"/>
-      <c r="Y4" s="0"/>
+      <c r="Q4" s="24" t="n">
+        <f aca="false">S4-Q3</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="8"/>
+      <c r="S4" s="25" t="n">
+        <f aca="false">MIN(W4,W10,W16)</f>
+        <v>2</v>
+      </c>
+      <c r="T4" s="16"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="24" t="n">
+        <f aca="false">Y4-W3</f>
+        <v>4</v>
+      </c>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="25" t="n">
+        <f aca="false">$AG$4</f>
+        <v>9</v>
+      </c>
       <c r="Z4" s="0"/>
       <c r="AA4" s="0"/>
       <c r="AB4" s="0"/>
       <c r="AC4" s="0"/>
       <c r="AD4" s="0"/>
       <c r="AE4" s="0"/>
-      <c r="AF4" s="0"/>
-      <c r="AG4" s="0"/>
-      <c r="AH4" s="0"/>
-      <c r="AI4" s="0"/>
-      <c r="AJ4" s="0"/>
-      <c r="AK4" s="0"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="24" t="n">
+        <f aca="false">AI4-AG3</f>
+        <v>9</v>
+      </c>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="25" t="n">
+        <f aca="false">$AL$10</f>
+        <v>10</v>
+      </c>
+      <c r="AJ4" s="16"/>
+      <c r="AK4" s="23"/>
       <c r="AL4" s="0"/>
-    </row>
-    <row r="5" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="AM4" s="0"/>
+      <c r="AN4" s="0"/>
+    </row>
+    <row r="5" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="17" t="n">
         <v>6</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14" t="n">
-        <v>6</v>
-      </c>
-      <c r="I5" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" s="15" t="n">
-        <f aca="false">120%/2</f>
-        <v>0.6</v>
-      </c>
-      <c r="K5" s="16" t="n">
-        <f aca="false">ROUND(H5/(I5*J5),0)</f>
+      <c r="I5" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" s="19" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K5" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="19"/>
+      <c r="M5" s="14" t="n">
+        <f aca="false">ROUND(H5/(I5*((J5+K5+L5)/I5)),0)</f>
         <v>5</v>
       </c>
-      <c r="R5" s="0"/>
-      <c r="S5" s="0"/>
       <c r="T5" s="0"/>
-      <c r="U5" s="0"/>
-      <c r="V5" s="0"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
       <c r="W5" s="0"/>
       <c r="X5" s="0"/>
       <c r="Y5" s="0"/>
@@ -843,46 +1025,48 @@
       <c r="AC5" s="0"/>
       <c r="AD5" s="0"/>
       <c r="AE5" s="0"/>
-      <c r="AF5" s="0"/>
+      <c r="AF5" s="23"/>
       <c r="AG5" s="0"/>
       <c r="AH5" s="0"/>
       <c r="AI5" s="0"/>
       <c r="AJ5" s="0"/>
-      <c r="AK5" s="0"/>
+      <c r="AK5" s="23"/>
       <c r="AL5" s="0"/>
-    </row>
-    <row r="6" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10" t="n">
+      <c r="AM5" s="0"/>
+      <c r="AN5" s="0"/>
+    </row>
+    <row r="6" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="I6" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="12" t="n">
-        <f aca="false">ROUND(H6/(I6*J6),0)</f>
+      <c r="I6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="0"/>
+      <c r="K6" s="0"/>
+      <c r="L6" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="14" t="n">
+        <f aca="false">ROUND(H6/(I6*((J6+K6+L6)/I6)),0)</f>
         <v>3</v>
       </c>
-      <c r="R6" s="0"/>
-      <c r="S6" s="0"/>
       <c r="T6" s="0"/>
-      <c r="U6" s="0"/>
-      <c r="V6" s="0"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
       <c r="W6" s="0"/>
       <c r="X6" s="0"/>
       <c r="Y6" s="0"/>
@@ -892,153 +1076,202 @@
       <c r="AC6" s="0"/>
       <c r="AD6" s="0"/>
       <c r="AE6" s="0"/>
-      <c r="AF6" s="0"/>
+      <c r="AF6" s="23"/>
       <c r="AG6" s="0"/>
       <c r="AH6" s="0"/>
       <c r="AI6" s="0"/>
       <c r="AJ6" s="0"/>
-      <c r="AK6" s="0"/>
+      <c r="AK6" s="23"/>
       <c r="AL6" s="0"/>
-    </row>
-    <row r="7" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="16" t="n">
-        <f aca="false">ROUND(H7/(I7*J7),0)</f>
-        <v>2</v>
-      </c>
-      <c r="R7" s="0"/>
-      <c r="S7" s="0"/>
+      <c r="AM6" s="0"/>
+      <c r="AN6" s="0"/>
+    </row>
+    <row r="7" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="19"/>
+      <c r="M7" s="14" t="n">
+        <f aca="false">ROUND(H7/(I7*((J7+K7+L7)/I7)),0)</f>
+        <v>2</v>
+      </c>
       <c r="T7" s="0"/>
-      <c r="U7" s="0"/>
-      <c r="V7" s="0"/>
-      <c r="W7" s="0"/>
-      <c r="X7" s="0"/>
-      <c r="Y7" s="0"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="7" t="n">
+        <f aca="false">$S$1</f>
+        <v>2</v>
+      </c>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="9" t="n">
+        <f aca="false">W7+W9</f>
+        <v>7</v>
+      </c>
       <c r="Z7" s="0"/>
       <c r="AA7" s="0"/>
-      <c r="AB7" s="0"/>
-      <c r="AC7" s="0"/>
-      <c r="AD7" s="0"/>
+      <c r="AB7" s="7" t="n">
+        <f aca="false">Y7</f>
+        <v>7</v>
+      </c>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="9" t="n">
+        <f aca="false">AB7+AB9</f>
+        <v>9</v>
+      </c>
       <c r="AE7" s="0"/>
-      <c r="AF7" s="0"/>
+      <c r="AF7" s="23"/>
       <c r="AG7" s="0"/>
       <c r="AH7" s="0"/>
       <c r="AI7" s="0"/>
       <c r="AJ7" s="0"/>
-      <c r="AK7" s="0"/>
-      <c r="AL7" s="0"/>
-    </row>
-    <row r="8" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="10" t="s">
+      <c r="AK7" s="23"/>
+      <c r="AL7" s="7" t="n">
+        <f aca="false">MAX(AI1,AI13)</f>
+        <v>10</v>
+      </c>
+      <c r="AM7" s="8"/>
+      <c r="AN7" s="9" t="n">
+        <f aca="false">AL7+AL9</f>
         <v>13</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="12" t="n">
-        <f aca="false">ROUND(H8/(I8*J8),0)</f>
-        <v>1</v>
-      </c>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
+    </row>
+    <row r="8" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="14" t="n">
+        <f aca="false">ROUND(H8/(I8*((J8+K8+L8)/I8)),0)</f>
+        <v>1</v>
+      </c>
       <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0"/>
-      <c r="Y8" s="0"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
       <c r="Z8" s="0"/>
       <c r="AA8" s="0"/>
-      <c r="AB8" s="0"/>
-      <c r="AC8" s="0"/>
-      <c r="AD8" s="0"/>
-      <c r="AE8" s="0"/>
-      <c r="AF8" s="0"/>
+      <c r="AB8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="28"/>
+      <c r="AF8" s="23"/>
       <c r="AG8" s="0"/>
       <c r="AH8" s="0"/>
       <c r="AI8" s="0"/>
       <c r="AJ8" s="0"/>
-      <c r="AK8" s="0"/>
-      <c r="AL8" s="0"/>
-    </row>
-    <row r="9" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="AK8" s="27"/>
+      <c r="AL8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R9" s="0"/>
-      <c r="S9" s="0"/>
+      <c r="AM8" s="15"/>
+      <c r="AN8" s="15"/>
+    </row>
+    <row r="9" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="14" t="n">
+        <f aca="false">ROUND(H9/(I9*((J9+K9+L9)/I9)),0)</f>
+        <v>2</v>
+      </c>
       <c r="T9" s="0"/>
-      <c r="U9" s="0"/>
+      <c r="U9" s="23"/>
       <c r="V9" s="0"/>
-      <c r="W9" s="0"/>
-      <c r="X9" s="0"/>
-      <c r="Y9" s="0"/>
-      <c r="Z9" s="0"/>
-      <c r="AA9" s="0"/>
-      <c r="AB9" s="0"/>
-      <c r="AC9" s="0"/>
-      <c r="AD9" s="0"/>
+      <c r="W9" s="20" t="n">
+        <f aca="false">M5</f>
+        <v>5</v>
+      </c>
+      <c r="X9" s="21" t="n">
+        <f aca="false">Y10-Y7</f>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="22" t="n">
+        <f aca="false">AB7-Y7</f>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="20" t="n">
+        <f aca="false">M7</f>
+        <v>2</v>
+      </c>
+      <c r="AC9" s="21" t="n">
+        <f aca="false">AD10-AD7</f>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="22" t="n">
+        <f aca="false">AG1-AD7</f>
+        <v>0</v>
+      </c>
       <c r="AE9" s="0"/>
       <c r="AF9" s="0"/>
       <c r="AG9" s="0"/>
@@ -1046,100 +1279,278 @@
       <c r="AI9" s="0"/>
       <c r="AJ9" s="0"/>
       <c r="AK9" s="0"/>
-      <c r="AL9" s="0"/>
-    </row>
-    <row r="10" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="AL9" s="20" t="n">
+        <f aca="false">M10</f>
+        <v>3</v>
+      </c>
+      <c r="AM9" s="21" t="n">
+        <f aca="false">AN10-AN7</f>
+        <v>0</v>
+      </c>
+      <c r="AN9" s="22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10" t="n">
+      <c r="B10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="I10" s="10" t="n">
+      <c r="I10" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="J10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="12" t="n">
-        <f aca="false">ROUND(H10/(I10*J10),0)</f>
+      <c r="J10" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" s="14" t="n">
+        <f aca="false">ROUND(H10/(I10*((J10+K10+L10)/I10)),0)</f>
         <v>3</v>
       </c>
-      <c r="R10" s="0"/>
-      <c r="S10" s="0"/>
       <c r="T10" s="0"/>
-      <c r="U10" s="0"/>
+      <c r="U10" s="23"/>
       <c r="V10" s="0"/>
-      <c r="W10" s="0"/>
-      <c r="X10" s="0"/>
-      <c r="Y10" s="0"/>
+      <c r="W10" s="24" t="n">
+        <f aca="false">Y10-W9</f>
+        <v>2</v>
+      </c>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="25" t="n">
+        <f aca="false">AB10</f>
+        <v>7</v>
+      </c>
       <c r="Z10" s="0"/>
       <c r="AA10" s="0"/>
-      <c r="AB10" s="0"/>
-      <c r="AC10" s="0"/>
-      <c r="AD10" s="0"/>
+      <c r="AB10" s="24" t="n">
+        <f aca="false">AD10-AB9</f>
+        <v>7</v>
+      </c>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="25" t="n">
+        <f aca="false">$AG$4</f>
+        <v>9</v>
+      </c>
       <c r="AE10" s="0"/>
       <c r="AF10" s="0"/>
       <c r="AG10" s="0"/>
       <c r="AH10" s="0"/>
       <c r="AI10" s="0"/>
       <c r="AJ10" s="0"/>
-      <c r="AK10" s="0"/>
-      <c r="AL10" s="0"/>
+      <c r="AK10" s="26"/>
+      <c r="AL10" s="24" t="n">
+        <f aca="false">AN10-AL9</f>
+        <v>10</v>
+      </c>
+      <c r="AM10" s="8"/>
+      <c r="AN10" s="25" t="n">
+        <f aca="false">AN7</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U11" s="23"/>
+      <c r="AK11" s="23"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
+      <c r="A12" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="U12" s="23"/>
+      <c r="AK12" s="23"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U13" s="23"/>
+      <c r="W13" s="7" t="n">
+        <f aca="false">$S$1</f>
+        <v>2</v>
+      </c>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="9" t="n">
+        <f aca="false">W13+W15</f>
+        <v>5</v>
+      </c>
+      <c r="AB13" s="7" t="n">
+        <f aca="false">Y13</f>
+        <v>5</v>
+      </c>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="9" t="n">
+        <f aca="false">AB13+AB15</f>
+        <v>8</v>
+      </c>
+      <c r="AG13" s="7" t="n">
+        <f aca="false">AD13</f>
+        <v>8</v>
+      </c>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="9" t="n">
+        <f aca="false">AG13+AG15</f>
+        <v>10</v>
+      </c>
+      <c r="AK13" s="23"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="U14" s="27"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="AB14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+      <c r="AG14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH14" s="15"/>
+      <c r="AI14" s="15"/>
+      <c r="AJ14" s="28"/>
+      <c r="AK14" s="23"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W15" s="20" t="n">
+        <f aca="false">M4</f>
+        <v>3</v>
+      </c>
+      <c r="X15" s="21" t="n">
+        <f aca="false">Y16-Y13</f>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="22" t="n">
+        <f aca="false">AB13-Y13</f>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="20" t="n">
+        <f aca="false">M6</f>
+        <v>3</v>
+      </c>
+      <c r="AC15" s="21" t="n">
+        <f aca="false">AD16-AD13</f>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="22" t="n">
+        <f aca="false">AG13-AD13</f>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="16"/>
+      <c r="AF15" s="16"/>
+      <c r="AG15" s="20" t="n">
+        <f aca="false">M9</f>
+        <v>2</v>
+      </c>
+      <c r="AH15" s="21" t="n">
+        <f aca="false">AI16-AI13</f>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W16" s="24" t="n">
+        <f aca="false">Y16-W15</f>
+        <v>2</v>
+      </c>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="25" t="n">
+        <f aca="false">AB16</f>
+        <v>5</v>
+      </c>
+      <c r="AB16" s="24" t="n">
+        <f aca="false">AD16-AB15</f>
+        <v>5</v>
+      </c>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="25" t="n">
+        <f aca="false">AG16</f>
+        <v>8</v>
+      </c>
+      <c r="AG16" s="24" t="n">
+        <f aca="false">AI16-AG15</f>
+        <v>8</v>
+      </c>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="25" t="n">
+        <f aca="false">$AL$10</f>
+        <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="12">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AL8:AN8"/>
+    <mergeCell ref="A12:M12"/>
+    <mergeCell ref="W14:Y14"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="AG14:AI14"/>
   </mergeCells>
-  <conditionalFormatting sqref="P3">
+  <conditionalFormatting sqref="AM9 AH3 AH15 AC15 AC9 X15 X9 X3 R3">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
@@ -1161,57 +1572,74 @@
   </sheetPr>
   <dimension ref="A1:AL16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="0" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="AJ7" activeCellId="0" sqref="AJ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="3.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="23" width="10.58"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="23" width="3.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="24" width="6.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="23" width="8.48"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="23" width="3.83"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="31" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="31" width="10.58"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="31" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="32" width="6.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="31" width="8.48"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="31" width="3.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="25" t="s">
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="8"/>
+      <c r="F1" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="9" t="n">
+        <f aca="false">I1+I3</f>
+        <v>1</v>
+      </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
+      <c r="N1" s="7" t="n">
+        <f aca="false">K1</f>
+        <v>1</v>
+      </c>
+      <c r="O1" s="8"/>
+      <c r="P1" s="9" t="n">
+        <f aca="false">N1+N3</f>
+        <v>5</v>
+      </c>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
+      <c r="S1" s="7" t="n">
+        <f aca="false">P1</f>
+        <v>5</v>
+      </c>
+      <c r="T1" s="8"/>
+      <c r="U1" s="9" t="n">
+        <f aca="false">S1+S3</f>
+        <v>8</v>
+      </c>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
@@ -1219,9 +1647,15 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
+      <c r="AC1" s="7" t="n">
+        <f aca="false">Z5</f>
+        <v>10</v>
+      </c>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="9" t="n">
+        <f aca="false">AC1+AC3</f>
+        <v>16</v>
+      </c>
       <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
@@ -1231,41 +1665,45 @@
       <c r="AL1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="28" t="s">
+      <c r="A2" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="28" t="n">
+      <c r="D2" s="36" t="n">
         <v>3</v>
       </c>
-      <c r="E2" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="32" t="n">
+      <c r="E2" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="40" t="n">
         <f aca="false">ROUND(D2/(E2*F2),0)</f>
-        <v>3</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+      <c r="N2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
+      <c r="S2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
@@ -1273,9 +1711,11 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
+      <c r="AC2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
@@ -1285,56 +1725,77 @@
       <c r="AL2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="32" t="s">
+      <c r="A3" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="32" t="n">
+      <c r="D3" s="40" t="n">
         <v>4</v>
       </c>
-      <c r="E3" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="32" t="n">
+      <c r="E3" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="40" t="n">
         <f aca="false">ROUND(D3/(E3*F3),0)</f>
         <v>4</v>
       </c>
-      <c r="I3" s="17" t="n">
+      <c r="I3" s="20" t="n">
         <f aca="false">G2</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="21" t="n">
+        <f aca="false">K4-K1</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="22"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="20" t="n">
+        <f aca="false">G3</f>
+        <v>4</v>
+      </c>
+      <c r="O3" s="21" t="n">
+        <f aca="false">P4-P1</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="20" t="n">
+        <f aca="false">G4</f>
         <v>3</v>
       </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
+      <c r="T3" s="21" t="n">
+        <f aca="false">U4-U1</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="22"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="42"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="20" t="n">
+        <f aca="false">G6</f>
+        <v>6</v>
+      </c>
+      <c r="AD3" s="21" t="n">
+        <f aca="false">AE4-AE1</f>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="42"/>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
@@ -1342,84 +1803,114 @@
       <c r="AL3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="32" t="s">
+      <c r="A4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="32" t="n">
+      <c r="C4" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="40" t="n">
         <v>3</v>
       </c>
-      <c r="E4" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="32" t="n">
+      <c r="E4" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="40" t="n">
         <f aca="false">ROUND(D4/(E4*F4),0)</f>
         <v>3</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
+      <c r="I4" s="24" t="n">
+        <f aca="false">K4-I3</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="25" t="n">
+        <f aca="false">MIN(N4,X8)</f>
+        <v>1</v>
+      </c>
+      <c r="L4" s="41"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="24" t="n">
+        <f aca="false">P4-N3</f>
+        <v>1</v>
+      </c>
+      <c r="O4" s="8"/>
+      <c r="P4" s="25" t="n">
+        <f aca="false">S4</f>
+        <v>5</v>
+      </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
+      <c r="S4" s="24" t="n">
+        <f aca="false">U4-S3</f>
+        <v>5</v>
+      </c>
+      <c r="T4" s="8"/>
+      <c r="U4" s="25" t="n">
+        <f aca="false">X8</f>
+        <v>8</v>
+      </c>
       <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
+      <c r="W4" s="42"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="24" t="n">
+        <f aca="false">AE4-AC3</f>
+        <v>10</v>
+      </c>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="25" t="n">
+        <f aca="false">AH7</f>
+        <v>16</v>
+      </c>
       <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="1"/>
-      <c r="AJ4" s="1"/>
+      <c r="AG4" s="42"/>
+      <c r="AH4" s="7" t="n">
+        <f aca="false">MAX(AE1,AE7)</f>
+        <v>16</v>
+      </c>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="9" t="n">
+        <f aca="false">AH4+AH6</f>
+        <v>18</v>
+      </c>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="32" t="s">
+      <c r="A5" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="32" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="32" t="n">
+      <c r="D5" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="40" t="n">
         <f aca="false">ROUND(D5/(E5*F5),0)</f>
         <v>2</v>
       </c>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="M5" s="42"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -1429,48 +1920,56 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="7" t="n">
+        <f aca="false">MAX(K1,U1)</f>
+        <v>8</v>
+      </c>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="9" t="n">
+        <f aca="false">X5+X7</f>
+        <v>10</v>
+      </c>
       <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
+      <c r="AB5" s="44"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI5" s="15"/>
+      <c r="AJ5" s="15"/>
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="32" t="s">
+      <c r="A6" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="40" t="n">
+        <v>9</v>
+      </c>
+      <c r="E6" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G6" s="40" t="n">
+        <f aca="false">ROUND(D6/(E6*F6),0)</f>
         <v>6</v>
       </c>
-      <c r="C6" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="32" t="n">
-        <v>9</v>
-      </c>
-      <c r="E6" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="32" t="n">
-        <f aca="false">ROUND(D6/(E6*F6),0)</f>
-        <v>9</v>
-      </c>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="M6" s="42"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -1480,94 +1979,120 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="46"/>
+      <c r="AB6" s="44"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="1"/>
-      <c r="AJ6" s="1"/>
+      <c r="AH6" s="20" t="n">
+        <f aca="false">G8</f>
+        <v>2</v>
+      </c>
+      <c r="AI6" s="21" t="n">
+        <f aca="false">AJ7-AJ4</f>
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="22"/>
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="32" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="32" t="n">
+      <c r="A7" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="40" t="n">
         <f aca="false">ROUND(D7/(E7*F7),0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="20" t="n">
+        <f aca="false">G5</f>
+        <v>2</v>
+      </c>
+      <c r="Y7" s="21" t="n">
+        <f aca="false">Z8-Z5</f>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="22"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
+      <c r="AC7" s="7" t="n">
+        <f aca="false">Z5</f>
+        <v>10</v>
+      </c>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="9" t="n">
+        <f aca="false">AC7+AC9</f>
+        <v>14</v>
+      </c>
       <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
-      <c r="AI7" s="1"/>
-      <c r="AJ7" s="1"/>
+      <c r="AG7" s="47"/>
+      <c r="AH7" s="24" t="n">
+        <f aca="false">AJ7-AH6</f>
+        <v>16</v>
+      </c>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="25" t="n">
+        <f aca="false">AJ4</f>
+        <v>18</v>
+      </c>
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="33" t="s">
+      <c r="A8" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="33" t="n">
+      <c r="C8" s="49"/>
+      <c r="D8" s="48" t="n">
         <v>6</v>
       </c>
-      <c r="E8" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="32" t="n">
+      <c r="E8" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="40" t="n">
         <f aca="false">ROUND(D8/(E8*F8),0)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -1581,26 +2106,34 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
+      <c r="X8" s="24" t="n">
+        <f aca="false">Z8-X7</f>
+        <v>8</v>
+      </c>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="25" t="n">
+        <f aca="false">MIN(AC4,AC10)</f>
+        <v>10</v>
+      </c>
+      <c r="AA8" s="41"/>
+      <c r="AB8" s="42"/>
+      <c r="AC8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="46"/>
+      <c r="AG8" s="42"/>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="50"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1617,10 +2150,16 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="20" t="n">
+        <f aca="false">G7</f>
+        <v>4</v>
+      </c>
+      <c r="AD9" s="21" t="n">
+        <f aca="false">AE10-AE7</f>
+        <v>2</v>
+      </c>
+      <c r="AE9" s="22"/>
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
@@ -1632,7 +2171,7 @@
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="50"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1650,9 +2189,15 @@
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
+      <c r="AC10" s="24" t="n">
+        <f aca="false">AE10-AC9</f>
+        <v>12</v>
+      </c>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="25" t="n">
+        <f aca="false">AH7</f>
+        <v>16</v>
+      </c>
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
@@ -1692,10 +2237,16 @@
       <c r="AE16" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="7">
     <mergeCell ref="I2:K2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AH5:AJ5"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="AC8:AE8"/>
   </mergeCells>
-  <conditionalFormatting sqref="J3">
+  <conditionalFormatting sqref="AI6 AD3 AD9 Y7 T3 O3 J3">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>

--- a/Übungen/Netzplan_Übung_3.xlsx
+++ b/Übungen/Netzplan_Übung_3.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="23">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -85,17 +85,22 @@
   <si>
     <t xml:space="preserve">E,F</t>
   </si>
+  <si>
+    <t xml:space="preserve">Maimal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 Personen</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0\ %"/>
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="General"/>
-    <numFmt numFmtId="168" formatCode="0\ %"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -125,6 +130,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -138,6 +144,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -249,7 +256,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -339,6 +346,27 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
       <right style="hair"/>
       <top/>
@@ -371,7 +399,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -392,7 +420,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -428,7 +456,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -456,107 +484,123 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="12" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="12" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="12" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="12" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -654,20 +698,20 @@
   </sheetPr>
   <dimension ref="A1:AL21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="3.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="3.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="3.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="3.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="8" min="8" style="1" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="9" min="9" style="0" width="4.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="9" min="9" style="1" width="4.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="10" min="10" style="2" width="7.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="3.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="3.24"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -704,7 +748,7 @@
         <f aca="false">O1+O3</f>
         <v>2</v>
       </c>
-      <c r="T1" s="0"/>
+      <c r="T1" s="1"/>
       <c r="U1" s="6" t="n">
         <f aca="false">Q1</f>
         <v>2</v>
@@ -712,16 +756,16 @@
       <c r="V1" s="7"/>
       <c r="W1" s="8" t="n">
         <f aca="false">U1+U3</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE1" s="6" t="n">
         <f aca="false">MAX(W1,AB7)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AF1" s="7"/>
       <c r="AG1" s="8" t="n">
         <f aca="false">AE1+AE3</f>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -762,7 +806,7 @@
       </c>
       <c r="P2" s="13"/>
       <c r="Q2" s="13"/>
-      <c r="T2" s="0"/>
+      <c r="T2" s="1"/>
       <c r="U2" s="13" t="s">
         <v>9</v>
       </c>
@@ -802,11 +846,11 @@
         <v>1</v>
       </c>
       <c r="J3" s="16" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="K3" s="17" t="n">
         <f aca="false">ROUND(H3/(I3*J3),0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O3" s="18" t="n">
         <f aca="false">K2</f>
@@ -825,15 +869,15 @@
       <c r="T3" s="22"/>
       <c r="U3" s="18" t="n">
         <f aca="false">K3</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V3" s="19" t="n">
         <f aca="false">W4-W1</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W3" s="20" t="n">
         <f aca="false">AE1-W1</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE3" s="18" t="n">
         <f aca="false">K8</f>
@@ -891,22 +935,22 @@
       <c r="T4" s="27"/>
       <c r="U4" s="24" t="n">
         <f aca="false">W4-U3</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V4" s="7"/>
       <c r="W4" s="25" t="n">
         <f aca="false">AE4</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AD4" s="28"/>
       <c r="AE4" s="24" t="n">
         <f aca="false">AG4-AE3</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AF4" s="7"/>
       <c r="AG4" s="25" t="n">
         <f aca="false">AJ10</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AI4" s="23"/>
     </row>
@@ -928,11 +972,10 @@
         <v>6</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="16" t="n">
-        <f aca="false">120%/2</f>
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="K5" s="17" t="n">
         <f aca="false">ROUND(H5/(I5*J5),0)</f>
@@ -940,7 +983,7 @@
       </c>
       <c r="S5" s="27"/>
       <c r="T5" s="27"/>
-      <c r="AD5" s="29"/>
+      <c r="AD5" s="23"/>
       <c r="AI5" s="23"/>
     </row>
     <row r="6" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -972,19 +1015,19 @@
       </c>
       <c r="S6" s="27"/>
       <c r="T6" s="27"/>
-      <c r="U6" s="0"/>
-      <c r="V6" s="0"/>
-      <c r="W6" s="0"/>
-      <c r="X6" s="0"/>
-      <c r="Y6" s="0"/>
-      <c r="Z6" s="0"/>
-      <c r="AA6" s="0"/>
-      <c r="AB6" s="0"/>
-      <c r="AC6" s="0"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
       <c r="AD6" s="27"/>
-      <c r="AE6" s="0"/>
-      <c r="AF6" s="0"/>
-      <c r="AG6" s="0"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
       <c r="AI6" s="23"/>
     </row>
     <row r="7" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1002,17 +1045,17 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I7" s="15" t="n">
         <v>1</v>
       </c>
       <c r="J7" s="16" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="K7" s="17" t="n">
         <f aca="false">ROUND(H7/(I7*J7),0)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S7" s="27"/>
       <c r="T7" s="27"/>
@@ -1025,8 +1068,8 @@
         <f aca="false">U7+U9</f>
         <v>7</v>
       </c>
-      <c r="X7" s="0"/>
-      <c r="Y7" s="0"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
       <c r="Z7" s="6" t="n">
         <f aca="false">W7</f>
         <v>7</v>
@@ -1034,22 +1077,22 @@
       <c r="AA7" s="7"/>
       <c r="AB7" s="8" t="n">
         <f aca="false">Z7+Z9</f>
-        <v>9</v>
-      </c>
-      <c r="AC7" s="0"/>
+        <v>12</v>
+      </c>
+      <c r="AC7" s="1"/>
       <c r="AD7" s="27"/>
-      <c r="AE7" s="0"/>
-      <c r="AF7" s="0"/>
-      <c r="AG7" s="0"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
       <c r="AI7" s="23"/>
       <c r="AJ7" s="6" t="n">
         <f aca="false">MAX(AG1,AG13)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AK7" s="7"/>
       <c r="AL7" s="8" t="n">
         <f aca="false">AJ7+AJ9</f>
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1082,25 +1125,25 @@
         <v>1</v>
       </c>
       <c r="S8" s="27"/>
-      <c r="T8" s="30"/>
+      <c r="T8" s="29"/>
       <c r="U8" s="13" t="s">
         <v>6</v>
       </c>
       <c r="V8" s="13"/>
       <c r="W8" s="13"/>
-      <c r="X8" s="0"/>
-      <c r="Y8" s="0"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
       <c r="Z8" s="13" t="s">
         <v>13</v>
       </c>
       <c r="AA8" s="13"/>
       <c r="AB8" s="13"/>
-      <c r="AC8" s="31"/>
+      <c r="AC8" s="30"/>
       <c r="AD8" s="27"/>
-      <c r="AE8" s="0"/>
-      <c r="AF8" s="0"/>
-      <c r="AG8" s="0"/>
-      <c r="AI8" s="32"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AI8" s="31"/>
       <c r="AJ8" s="13" t="s">
         <v>15</v>
       </c>
@@ -1134,7 +1177,7 @@
         <v>2</v>
       </c>
       <c r="S9" s="27"/>
-      <c r="T9" s="0"/>
+      <c r="T9" s="1"/>
       <c r="U9" s="18" t="n">
         <f aca="false">K5</f>
         <v>5</v>
@@ -1151,7 +1194,7 @@
       <c r="Y9" s="22"/>
       <c r="Z9" s="18" t="n">
         <f aca="false">K7</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AA9" s="19" t="n">
         <f aca="false">AB10-AB7</f>
@@ -1161,11 +1204,11 @@
         <f aca="false">AE1-AB7</f>
         <v>0</v>
       </c>
-      <c r="AC9" s="0"/>
-      <c r="AD9" s="0"/>
-      <c r="AE9" s="0"/>
-      <c r="AF9" s="0"/>
-      <c r="AG9" s="0"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
       <c r="AJ9" s="18" t="n">
         <f aca="false">K10</f>
         <v>3</v>
@@ -1205,8 +1248,8 @@
         <f aca="false">ROUND(H10/(I10*J10),0)</f>
         <v>3</v>
       </c>
-      <c r="S10" s="29"/>
-      <c r="T10" s="0"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="1"/>
       <c r="U10" s="24" t="n">
         <f aca="false">W10-U9</f>
         <v>2</v>
@@ -1216,8 +1259,8 @@
         <f aca="false">Z10</f>
         <v>7</v>
       </c>
-      <c r="X10" s="0"/>
-      <c r="Y10" s="0"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
       <c r="Z10" s="24" t="n">
         <f aca="false">AB10-Z9</f>
         <v>7</v>
@@ -1225,22 +1268,22 @@
       <c r="AA10" s="7"/>
       <c r="AB10" s="25" t="n">
         <f aca="false">AE4</f>
-        <v>9</v>
-      </c>
-      <c r="AC10" s="0"/>
-      <c r="AD10" s="0"/>
-      <c r="AE10" s="0"/>
-      <c r="AF10" s="0"/>
-      <c r="AG10" s="0"/>
+        <v>12</v>
+      </c>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
       <c r="AI10" s="28"/>
       <c r="AJ10" s="24" t="n">
         <f aca="false">AL10-AJ9</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AK10" s="7"/>
       <c r="AL10" s="25" t="n">
         <f aca="false">AL7</f>
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1248,19 +1291,19 @@
       <c r="AI11" s="27"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
       <c r="S12" s="27"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
@@ -1313,14 +1356,14 @@
       <c r="AI13" s="27"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="0" t="s">
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S14" s="30"/>
-      <c r="T14" s="31"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="30"/>
       <c r="U14" s="13" t="s">
         <v>10</v>
       </c>
@@ -1340,7 +1383,7 @@
       </c>
       <c r="AF14" s="13"/>
       <c r="AG14" s="13"/>
-      <c r="AH14" s="31"/>
+      <c r="AH14" s="30"/>
       <c r="AI14" s="27"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1350,7 +1393,7 @@
       </c>
       <c r="V15" s="19" t="n">
         <f aca="false">W16-W13</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W15" s="20" t="n">
         <f aca="false">Z13-W13</f>
@@ -1364,7 +1407,7 @@
       </c>
       <c r="AA15" s="19" t="n">
         <f aca="false">AB16-AB13</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB15" s="20" t="n">
         <f aca="false">AE13-AB13</f>
@@ -1378,61 +1421,57 @@
       </c>
       <c r="AF15" s="19" t="n">
         <f aca="false">AG16-AG13</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG15" s="20" t="n">
         <f aca="false">AJ7-AG13</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="U16" s="24" t="n">
         <f aca="false">W16-U15</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V16" s="7"/>
       <c r="W16" s="25" t="n">
         <f aca="false">Z16</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
       <c r="Z16" s="24" t="n">
         <f aca="false">AB16-Z15</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AA16" s="7"/>
       <c r="AB16" s="25" t="n">
         <f aca="false">AE16</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
       <c r="AE16" s="24" t="n">
         <f aca="false">AG16-AE15</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AF16" s="7"/>
       <c r="AG16" s="25" t="n">
         <f aca="false">AJ10</f>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H18" s="0"/>
-      <c r="J18" s="0"/>
+      <c r="J18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H19" s="0"/>
-      <c r="J19" s="0"/>
+      <c r="J19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H20" s="0"/>
-      <c r="J20" s="0"/>
+      <c r="J20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H21" s="0"/>
-      <c r="J21" s="0"/>
+      <c r="J21" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1471,315 +1510,422 @@
   </sheetPr>
   <dimension ref="A1:AL16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="34" width="3.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="34" width="10.58"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="34" width="3.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="35" width="6.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="34" width="8.48"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="34" width="3.83"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="33" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="33" width="10.58"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="33" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="34" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="33" width="8.48"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="33" width="3.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="36" t="s">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="37" t="s">
+      <c r="D1" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="36" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J1" s="7"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="0"/>
-      <c r="M1" s="0"/>
-      <c r="N1" s="0"/>
-      <c r="O1" s="0"/>
-      <c r="P1" s="0"/>
-      <c r="Q1" s="0"/>
-      <c r="R1" s="0"/>
-      <c r="S1" s="0"/>
-      <c r="T1" s="0"/>
-      <c r="U1" s="0"/>
-      <c r="V1" s="0"/>
-      <c r="W1" s="0"/>
-      <c r="X1" s="0"/>
-      <c r="Y1" s="0"/>
-      <c r="Z1" s="0"/>
-      <c r="AA1" s="0"/>
+      <c r="K1" s="8" t="n">
+        <f aca="false">I1+I3</f>
+        <v>1</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="6" t="n">
+        <f aca="false">$K$1</f>
+        <v>1</v>
+      </c>
+      <c r="O1" s="7"/>
+      <c r="P1" s="8" t="n">
+        <f aca="false">N1+N3</f>
+        <v>3</v>
+      </c>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="6" t="n">
+        <f aca="false">P1</f>
+        <v>3</v>
+      </c>
+      <c r="T1" s="7"/>
+      <c r="U1" s="8" t="n">
+        <f aca="false">S1+S3</f>
+        <v>4</v>
+      </c>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
       <c r="AB1" s="0"/>
-      <c r="AC1" s="0"/>
-      <c r="AD1" s="0"/>
-      <c r="AE1" s="0"/>
-      <c r="AF1" s="0"/>
-      <c r="AG1" s="0"/>
-      <c r="AH1" s="0"/>
-      <c r="AI1" s="0"/>
-      <c r="AJ1" s="0"/>
-      <c r="AK1" s="0"/>
-      <c r="AL1" s="0"/>
+      <c r="AC1" s="6" t="n">
+        <f aca="false">Z7</f>
+        <v>5</v>
+      </c>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="8" t="n">
+        <f aca="false">AC1+AC3</f>
+        <v>9</v>
+      </c>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="6" t="n">
+        <f aca="false">MAX(AE1,AE7)</f>
+        <v>9</v>
+      </c>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="8" t="n">
+        <f aca="false">AH1+AH3</f>
+        <v>11</v>
+      </c>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="39" t="s">
+      <c r="B2" s="39"/>
+      <c r="C2" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="39" t="n">
-        <v>3</v>
-      </c>
-      <c r="E2" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="43" t="n">
-        <f aca="false">ROUND(D2/(E2*F2),0)</f>
-        <v>3</v>
+      <c r="D2" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="40" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="42" t="n">
+        <f aca="false">ROUNDUP(D2/(E2*F2),0)</f>
+        <v>1</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
-      <c r="L2" s="0"/>
-      <c r="M2" s="0"/>
-      <c r="N2" s="0"/>
-      <c r="O2" s="0"/>
-      <c r="P2" s="0"/>
-      <c r="Q2" s="0"/>
-      <c r="R2" s="0"/>
-      <c r="S2" s="0"/>
-      <c r="T2" s="0"/>
-      <c r="U2" s="0"/>
-      <c r="V2" s="0"/>
-      <c r="W2" s="0"/>
-      <c r="X2" s="0"/>
-      <c r="Y2" s="0"/>
-      <c r="Z2" s="0"/>
-      <c r="AA2" s="0"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
       <c r="AB2" s="0"/>
-      <c r="AC2" s="0"/>
-      <c r="AD2" s="0"/>
-      <c r="AE2" s="0"/>
-      <c r="AF2" s="0"/>
-      <c r="AG2" s="0"/>
-      <c r="AH2" s="0"/>
-      <c r="AI2" s="0"/>
-      <c r="AJ2" s="0"/>
-      <c r="AK2" s="0"/>
-      <c r="AL2" s="0"/>
+      <c r="AC2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="43" t="n">
+      <c r="D3" s="42" t="n">
         <v>4</v>
       </c>
-      <c r="E3" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="43" t="n">
-        <f aca="false">ROUND(D3/(E3*F3),0)</f>
+      <c r="E3" s="40" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="42" t="n">
+        <f aca="false">ROUNDUP(D3/(E3*F3),0)</f>
+        <v>2</v>
+      </c>
+      <c r="I3" s="18" t="n">
+        <f aca="false">VLOOKUP(I2,$A$2:$G$8,7)</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="19" t="n">
+        <f aca="false">K4-K1</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="20" t="n">
+        <f aca="false">MIN(N1,X7)-K1</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="18" t="n">
+        <f aca="false">VLOOKUP(N2,$A$2:$G$8,7)</f>
+        <v>2</v>
+      </c>
+      <c r="O3" s="19" t="n">
+        <f aca="false">P4-P1</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="20" t="n">
+        <f aca="false">S1-P1</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="18" t="n">
+        <f aca="false">VLOOKUP(S2,$A$2:$G$8,7)</f>
+        <v>1</v>
+      </c>
+      <c r="T3" s="19" t="n">
+        <f aca="false">U4-U1</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="20" t="n">
+        <f aca="false">X7-U1</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="1"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="18" t="n">
+        <f aca="false">VLOOKUP(AC2,$A$2:$G$8,7)</f>
         <v>4</v>
       </c>
-      <c r="I3" s="18" t="n">
-        <f aca="false">G2</f>
-        <v>3</v>
-      </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="0"/>
-      <c r="M3" s="0"/>
-      <c r="N3" s="0"/>
-      <c r="O3" s="0"/>
-      <c r="P3" s="0"/>
-      <c r="Q3" s="0"/>
-      <c r="R3" s="0"/>
-      <c r="S3" s="0"/>
-      <c r="T3" s="0"/>
-      <c r="U3" s="0"/>
-      <c r="V3" s="0"/>
-      <c r="W3" s="0"/>
-      <c r="X3" s="0"/>
-      <c r="Y3" s="0"/>
-      <c r="Z3" s="0"/>
-      <c r="AA3" s="0"/>
-      <c r="AB3" s="0"/>
-      <c r="AC3" s="0"/>
-      <c r="AD3" s="0"/>
-      <c r="AE3" s="0"/>
-      <c r="AF3" s="0"/>
-      <c r="AG3" s="0"/>
-      <c r="AH3" s="0"/>
-      <c r="AI3" s="0"/>
-      <c r="AJ3" s="0"/>
-      <c r="AK3" s="0"/>
-      <c r="AL3" s="0"/>
+      <c r="AD3" s="19" t="n">
+        <f aca="false">AE4-AE1</f>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="20" t="n">
+        <f aca="false">AH1-AE1</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="18" t="n">
+        <f aca="false">VLOOKUP(AH2,$A$2:$G$8,7)</f>
+        <v>2</v>
+      </c>
+      <c r="AI3" s="19" t="n">
+        <f aca="false">AJ4-AJ1</f>
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="43" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="43" t="n">
-        <f aca="false">ROUND(D4/(E4*F4),0)</f>
-        <v>3</v>
-      </c>
-      <c r="I4" s="24"/>
+      <c r="D4" s="42" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" s="40" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="42" t="n">
+        <f aca="false">ROUNDUP(D4/(E4*F4),0)</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="24" t="n">
+        <f aca="false">K4-I3</f>
+        <v>0</v>
+      </c>
       <c r="J4" s="7"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="0"/>
-      <c r="M4" s="0"/>
-      <c r="N4" s="0"/>
-      <c r="O4" s="0"/>
-      <c r="P4" s="0"/>
-      <c r="Q4" s="0"/>
-      <c r="R4" s="0"/>
-      <c r="S4" s="0"/>
-      <c r="T4" s="0"/>
-      <c r="U4" s="0"/>
-      <c r="V4" s="0"/>
-      <c r="W4" s="0"/>
-      <c r="X4" s="0"/>
-      <c r="Y4" s="0"/>
-      <c r="Z4" s="0"/>
-      <c r="AA4" s="0"/>
+      <c r="K4" s="25" t="n">
+        <f aca="false">MIN(N4,X10)</f>
+        <v>1</v>
+      </c>
+      <c r="L4" s="45"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="24" t="n">
+        <f aca="false">P4-N3</f>
+        <v>1</v>
+      </c>
+      <c r="O4" s="7"/>
+      <c r="P4" s="25" t="n">
+        <f aca="false">S4</f>
+        <v>3</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="24" t="n">
+        <f aca="false">U4-S3</f>
+        <v>3</v>
+      </c>
+      <c r="T4" s="7"/>
+      <c r="U4" s="25" t="n">
+        <f aca="false">X10</f>
+        <v>4</v>
+      </c>
+      <c r="V4" s="1"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="43"/>
       <c r="AB4" s="0"/>
-      <c r="AC4" s="0"/>
-      <c r="AD4" s="0"/>
-      <c r="AE4" s="0"/>
-      <c r="AF4" s="0"/>
-      <c r="AG4" s="0"/>
-      <c r="AH4" s="0"/>
-      <c r="AI4" s="0"/>
-      <c r="AJ4" s="0"/>
-      <c r="AK4" s="0"/>
-      <c r="AL4" s="0"/>
+      <c r="AC4" s="24" t="n">
+        <f aca="false">AE4-AC3</f>
+        <v>5</v>
+      </c>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="25" t="n">
+        <f aca="false">AH4</f>
+        <v>9</v>
+      </c>
+      <c r="AF4" s="43"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="24" t="n">
+        <f aca="false">AJ4-AH3</f>
+        <v>9</v>
+      </c>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="25" t="n">
+        <f aca="false">AJ1</f>
+        <v>11</v>
+      </c>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="43" t="n">
+      <c r="D5" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="E5" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="43" t="n">
-        <f aca="false">ROUND(D5/(E5*F5),0)</f>
+      <c r="E5" s="40" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="42" t="n">
+        <f aca="false">ROUNDUP(D5/(E5*F5),0)</f>
+        <v>1</v>
+      </c>
+      <c r="L5" s="43"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="42" t="n">
+        <v>9</v>
+      </c>
+      <c r="E6" s="40" t="n">
         <v>2</v>
       </c>
-      <c r="L5" s="0"/>
-      <c r="M5" s="0"/>
-      <c r="N5" s="0"/>
-      <c r="O5" s="0"/>
-      <c r="P5" s="0"/>
-      <c r="Q5" s="0"/>
-      <c r="R5" s="0"/>
-      <c r="S5" s="0"/>
-      <c r="T5" s="0"/>
-      <c r="U5" s="0"/>
-      <c r="V5" s="0"/>
-      <c r="W5" s="0"/>
-      <c r="X5" s="0"/>
-      <c r="Y5" s="0"/>
-      <c r="Z5" s="0"/>
-      <c r="AA5" s="0"/>
-      <c r="AB5" s="0"/>
-      <c r="AC5" s="0"/>
-      <c r="AD5" s="0"/>
-      <c r="AE5" s="0"/>
-      <c r="AF5" s="0"/>
-      <c r="AG5" s="0"/>
-      <c r="AH5" s="0"/>
-      <c r="AI5" s="0"/>
-      <c r="AJ5" s="0"/>
-      <c r="AK5" s="0"/>
-      <c r="AL5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="43" t="n">
-        <v>9</v>
-      </c>
-      <c r="E6" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="43" t="n">
-        <f aca="false">ROUND(D6/(E6*F6),0)</f>
-        <v>9</v>
-      </c>
-      <c r="L6" s="0"/>
+      <c r="F6" s="41" t="n">
+        <f aca="false">(300%-F7)/2</f>
+        <v>1.15</v>
+      </c>
+      <c r="G6" s="42" t="n">
+        <f aca="false">ROUNDUP(D6/(E6*F6),0)</f>
+        <v>4</v>
+      </c>
+      <c r="L6" s="43"/>
       <c r="M6" s="0"/>
       <c r="N6" s="0"/>
       <c r="O6" s="0"/>
@@ -1790,186 +1936,238 @@
       <c r="T6" s="0"/>
       <c r="U6" s="0"/>
       <c r="V6" s="0"/>
-      <c r="W6" s="0"/>
-      <c r="X6" s="0"/>
-      <c r="Y6" s="0"/>
-      <c r="Z6" s="0"/>
-      <c r="AA6" s="0"/>
-      <c r="AB6" s="0"/>
-      <c r="AC6" s="0"/>
-      <c r="AD6" s="0"/>
-      <c r="AE6" s="0"/>
-      <c r="AF6" s="0"/>
-      <c r="AG6" s="0"/>
-      <c r="AH6" s="0"/>
-      <c r="AI6" s="0"/>
-      <c r="AJ6" s="0"/>
-      <c r="AK6" s="0"/>
-      <c r="AL6" s="0"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="43"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="43"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="43" t="n">
+      <c r="D7" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="E7" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="43" t="n">
-        <f aca="false">ROUND(D7/(E7*F7),0)</f>
+      <c r="E7" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="41" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G7" s="42" t="n">
+        <f aca="false">ROUNDUP(D7/(E7*F7),0)</f>
+        <v>3</v>
+      </c>
+      <c r="L7" s="43"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="6" t="n">
+        <f aca="false">MAX(K1,U1)</f>
+        <v>4</v>
+      </c>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="8" t="n">
+        <f aca="false">X7+X9</f>
+        <v>5</v>
+      </c>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="6" t="n">
+        <f aca="false">Z7</f>
+        <v>5</v>
+      </c>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="8" t="n">
+        <f aca="false">AC7+AC9</f>
+        <v>8</v>
+      </c>
+      <c r="AF7" s="43"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="49"/>
+      <c r="D8" s="48" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" s="40" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="42" t="n">
+        <f aca="false">ROUNDUP(D8/(E8*F8),0)</f>
         <v>2</v>
       </c>
-      <c r="L7" s="0"/>
-      <c r="M7" s="0"/>
-      <c r="N7" s="0"/>
-      <c r="O7" s="0"/>
-      <c r="P7" s="0"/>
-      <c r="Q7" s="0"/>
-      <c r="R7" s="0"/>
-      <c r="S7" s="0"/>
-      <c r="T7" s="0"/>
-      <c r="U7" s="0"/>
-      <c r="V7" s="0"/>
-      <c r="W7" s="0"/>
-      <c r="X7" s="0"/>
-      <c r="Y7" s="0"/>
-      <c r="Z7" s="0"/>
-      <c r="AA7" s="0"/>
-      <c r="AB7" s="0"/>
-      <c r="AC7" s="0"/>
-      <c r="AD7" s="0"/>
-      <c r="AE7" s="0"/>
-      <c r="AF7" s="0"/>
-      <c r="AG7" s="0"/>
-      <c r="AH7" s="0"/>
-      <c r="AI7" s="0"/>
-      <c r="AJ7" s="0"/>
-      <c r="AK7" s="0"/>
-      <c r="AL7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="44" t="n">
+      <c r="L8" s="1"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="43" t="n">
-        <f aca="false">ROUND(D8/(E8*F8),0)</f>
-        <v>6</v>
-      </c>
-      <c r="L8" s="0"/>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0"/>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
-      <c r="AB8" s="0"/>
-      <c r="AC8" s="0"/>
-      <c r="AD8" s="0"/>
-      <c r="AE8" s="0"/>
-      <c r="AF8" s="0"/>
-      <c r="AG8" s="0"/>
-      <c r="AH8" s="0"/>
-      <c r="AI8" s="0"/>
-      <c r="AJ8" s="0"/>
-      <c r="AK8" s="0"/>
-      <c r="AL8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="47"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="46"/>
-      <c r="L9" s="0"/>
-      <c r="M9" s="0"/>
+      <c r="F9" s="2"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
       <c r="N9" s="0"/>
       <c r="O9" s="0"/>
       <c r="P9" s="0"/>
-      <c r="Q9" s="0"/>
-      <c r="R9" s="0"/>
-      <c r="S9" s="0"/>
-      <c r="T9" s="0"/>
-      <c r="U9" s="0"/>
-      <c r="V9" s="0"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
       <c r="W9" s="0"/>
-      <c r="X9" s="0"/>
-      <c r="Y9" s="0"/>
-      <c r="Z9" s="0"/>
-      <c r="AA9" s="0"/>
-      <c r="AB9" s="0"/>
-      <c r="AC9" s="0"/>
-      <c r="AD9" s="0"/>
-      <c r="AE9" s="0"/>
-      <c r="AF9" s="0"/>
-      <c r="AG9" s="0"/>
-      <c r="AH9" s="0"/>
-      <c r="AI9" s="0"/>
-      <c r="AJ9" s="0"/>
-      <c r="AK9" s="0"/>
-      <c r="AL9" s="0"/>
+      <c r="X9" s="18" t="n">
+        <f aca="false">VLOOKUP(X8,$A$2:$G$8,7)</f>
+        <v>1</v>
+      </c>
+      <c r="Y9" s="19" t="n">
+        <f aca="false">Z10-Z7</f>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="20" t="n">
+        <f aca="false">MIN(AC7,AC1)-Z7</f>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="18" t="n">
+        <f aca="false">VLOOKUP(AC8,$A$2:$G$8,7)</f>
+        <v>3</v>
+      </c>
+      <c r="AD9" s="19" t="n">
+        <f aca="false">AE10-AE7</f>
+        <v>1</v>
+      </c>
+      <c r="AE9" s="20" t="n">
+        <f aca="false">AH1-AE7</f>
+        <v>1</v>
+      </c>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>22</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="46"/>
-      <c r="L10" s="0"/>
-      <c r="M10" s="0"/>
+      <c r="F10" s="2"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
       <c r="N10" s="0"/>
       <c r="O10" s="0"/>
       <c r="P10" s="0"/>
-      <c r="Q10" s="0"/>
-      <c r="R10" s="0"/>
-      <c r="S10" s="0"/>
-      <c r="T10" s="0"/>
-      <c r="U10" s="0"/>
-      <c r="V10" s="0"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
       <c r="W10" s="0"/>
-      <c r="X10" s="0"/>
-      <c r="Y10" s="0"/>
-      <c r="Z10" s="0"/>
-      <c r="AA10" s="0"/>
-      <c r="AB10" s="0"/>
-      <c r="AC10" s="0"/>
-      <c r="AD10" s="0"/>
-      <c r="AE10" s="0"/>
-      <c r="AF10" s="0"/>
-      <c r="AG10" s="0"/>
-      <c r="AH10" s="0"/>
-      <c r="AI10" s="0"/>
-      <c r="AJ10" s="0"/>
-      <c r="AK10" s="0"/>
-      <c r="AL10" s="0"/>
+      <c r="X10" s="24" t="n">
+        <f aca="false">Z10-X9</f>
+        <v>4</v>
+      </c>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="25" t="n">
+        <f aca="false">MIN(AC4,AC10)</f>
+        <v>5</v>
+      </c>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="24" t="n">
+        <f aca="false">AE10-AC9</f>
+        <v>6</v>
+      </c>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="25" t="n">
+        <f aca="false">AH4</f>
+        <v>9</v>
+      </c>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AC11" s="1"/>
@@ -2002,10 +2200,16 @@
       <c r="AE16" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="7">
     <mergeCell ref="I2:K2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="AC8:AE8"/>
   </mergeCells>
-  <conditionalFormatting sqref="J3">
+  <conditionalFormatting sqref="AI3 AD3 AD9 Y9 T3 O3 J3">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>

--- a/Übungen/Netzplan_Übung_3.xlsx
+++ b/Übungen/Netzplan_Übung_3.xlsx
@@ -399,7 +399,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -576,18 +576,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -598,10 +590,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="13" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -698,8 +686,8 @@
   </sheetPr>
   <dimension ref="A1:AL21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -1488,7 +1476,7 @@
     <mergeCell ref="Z14:AB14"/>
     <mergeCell ref="AE14:AG14"/>
   </mergeCells>
-  <conditionalFormatting sqref="V3:W3 AK9 AF3 AF15 AA9 AA15 V9 V15 P3">
+  <conditionalFormatting sqref="P3 V3:W3 AK9 AF3 AF15 AA9 AA15 V9 V15">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
@@ -1511,7 +1499,7 @@
   <dimension ref="A1:AL16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1582,7 +1570,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
-      <c r="AB1" s="0"/>
+      <c r="AB1" s="1"/>
       <c r="AC1" s="6" t="n">
         <f aca="false">Z7</f>
         <v>5</v>
@@ -1652,7 +1640,7 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
-      <c r="AB2" s="0"/>
+      <c r="AB2" s="1"/>
       <c r="AC2" s="13" t="s">
         <v>12</v>
       </c>
@@ -1737,7 +1725,7 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="43"/>
-      <c r="AB3" s="44"/>
+      <c r="AB3" s="22"/>
       <c r="AC3" s="18" t="n">
         <f aca="false">VLOOKUP(AC2,$A$2:$G$8,7)</f>
         <v>4</v>
@@ -1798,7 +1786,7 @@
         <f aca="false">MIN(N4,X10)</f>
         <v>1</v>
       </c>
-      <c r="L4" s="45"/>
+      <c r="L4" s="44"/>
       <c r="M4" s="1"/>
       <c r="N4" s="24" t="n">
         <f aca="false">P4-N3</f>
@@ -1826,7 +1814,7 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="43"/>
-      <c r="AB4" s="0"/>
+      <c r="AB4" s="1"/>
       <c r="AC4" s="24" t="n">
         <f aca="false">AE4-AC3</f>
         <v>5</v>
@@ -1926,16 +1914,16 @@
         <v>4</v>
       </c>
       <c r="L6" s="43"/>
-      <c r="M6" s="0"/>
-      <c r="N6" s="0"/>
-      <c r="O6" s="0"/>
-      <c r="P6" s="0"/>
-      <c r="Q6" s="0"/>
-      <c r="R6" s="0"/>
-      <c r="S6" s="0"/>
-      <c r="T6" s="0"/>
-      <c r="U6" s="0"/>
-      <c r="V6" s="0"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
       <c r="W6" s="27"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
@@ -1987,7 +1975,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
-      <c r="W7" s="46"/>
+      <c r="W7" s="29"/>
       <c r="X7" s="6" t="n">
         <f aca="false">MAX(K1,U1)</f>
         <v>4</v>
@@ -1997,7 +1985,7 @@
         <f aca="false">X7+X9</f>
         <v>5</v>
       </c>
-      <c r="AA7" s="47"/>
+      <c r="AA7" s="45"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="6" t="n">
         <f aca="false">Z7</f>
@@ -2017,14 +2005,14 @@
       <c r="AL7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="48" t="n">
+      <c r="C8" s="47"/>
+      <c r="D8" s="46" t="n">
         <v>6</v>
       </c>
       <c r="E8" s="40" t="n">
@@ -2039,16 +2027,16 @@
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="29"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
       <c r="Q8" s="30"/>
       <c r="R8" s="30"/>
       <c r="S8" s="30"/>
       <c r="T8" s="30"/>
       <c r="U8" s="30"/>
       <c r="V8" s="30"/>
-      <c r="W8" s="50"/>
+      <c r="W8" s="30"/>
       <c r="X8" s="13" t="s">
         <v>6</v>
       </c>
@@ -2061,7 +2049,7 @@
       </c>
       <c r="AD8" s="13"/>
       <c r="AE8" s="13"/>
-      <c r="AF8" s="47"/>
+      <c r="AF8" s="45"/>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
@@ -2075,16 +2063,16 @@
       <c r="F9" s="2"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="0"/>
-      <c r="O9" s="0"/>
-      <c r="P9" s="0"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
-      <c r="W9" s="0"/>
+      <c r="W9" s="1"/>
       <c r="X9" s="18" t="n">
         <f aca="false">VLOOKUP(X8,$A$2:$G$8,7)</f>
         <v>1</v>
@@ -2131,16 +2119,16 @@
       <c r="F10" s="2"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="0"/>
-      <c r="O10" s="0"/>
-      <c r="P10" s="0"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
-      <c r="W10" s="0"/>
+      <c r="W10" s="1"/>
       <c r="X10" s="24" t="n">
         <f aca="false">Z10-X9</f>
         <v>4</v>
@@ -2209,7 +2197,7 @@
     <mergeCell ref="X8:Z8"/>
     <mergeCell ref="AC8:AE8"/>
   </mergeCells>
-  <conditionalFormatting sqref="AI3 AD3 AD9 Y9 T3 O3 J3">
+  <conditionalFormatting sqref="J3 AI3 AD3 AD9 Y9 T3 O3">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>

--- a/Übungen/Netzplan_Übung_3.xlsx
+++ b/Übungen/Netzplan_Übung_3.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="23">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -256,7 +256,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -282,11 +282,67 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
       <right style="thin">
         <color rgb="FF00599D"/>
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -336,7 +392,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -369,8 +425,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -385,7 +445,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -401,7 +461,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -409,7 +469,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -417,18 +477,46 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -441,39 +529,39 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="12" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="12" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="12" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="10" fillId="12" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -572,16 +660,18 @@
   <dimension ref="A1:AL21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O3" activeCellId="0" sqref="O3"/>
+      <pane xSplit="11" ySplit="0" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="AI14" activeCellId="0" sqref="AI14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="6.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="7.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="8" min="8" style="1" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="9" min="9" style="1" width="4.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="10" min="10" style="2" width="7.79"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="8" min="8" style="1" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="9" min="9" style="1" width="4.6"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="10" min="10" style="2" width="7.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="3.24"/>
   </cols>
   <sheetData>
@@ -611,15 +701,26 @@
       <c r="K1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="6"/>
+      <c r="O1" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="P1" s="7"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="0"/>
-      <c r="S1" s="0"/>
-      <c r="T1" s="0"/>
-      <c r="U1" s="0"/>
-      <c r="V1" s="0"/>
-      <c r="W1" s="0"/>
+      <c r="Q1" s="8" t="n">
+        <f aca="false">O1+O3</f>
+        <v>6</v>
+      </c>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="6" t="n">
+        <f aca="false">Q1</f>
+        <v>6</v>
+      </c>
+      <c r="V1" s="7"/>
+      <c r="W1" s="8" t="n">
+        <f aca="false">U1+U3</f>
+        <v>10</v>
+      </c>
       <c r="X1" s="0"/>
       <c r="Y1" s="0"/>
       <c r="Z1" s="0"/>
@@ -640,52 +741,54 @@
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="I2" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="12" t="n">
+      <c r="G2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="I2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="13" t="n">
         <f aca="false">ROUND(H2/(I2*J2),0)</f>
         <v>6</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
       <c r="R2" s="0"/>
       <c r="S2" s="0"/>
       <c r="T2" s="0"/>
-      <c r="U2" s="0"/>
-      <c r="V2" s="0"/>
-      <c r="W2" s="0"/>
-      <c r="X2" s="0"/>
-      <c r="Y2" s="0"/>
-      <c r="Z2" s="0"/>
-      <c r="AA2" s="0"/>
-      <c r="AB2" s="0"/>
-      <c r="AC2" s="0"/>
+      <c r="U2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
       <c r="AD2" s="0"/>
       <c r="AE2" s="0"/>
       <c r="AF2" s="0"/>
@@ -700,48 +803,57 @@
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14" t="n">
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="I3" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="16" t="n">
+      <c r="I3" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="17" t="n">
         <f aca="false">ROUND(H3/(I3*J3),0)</f>
         <v>4</v>
       </c>
-      <c r="O3" s="17" t="n">
+      <c r="O3" s="18" t="n">
         <f aca="false">VLOOKUP(O2,$A$2:$K$10,8)</f>
         <v>6</v>
       </c>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="0"/>
-      <c r="S3" s="0"/>
+      <c r="P3" s="19" t="n">
+        <f aca="false">Q4-Q1</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="22"/>
       <c r="T3" s="0"/>
-      <c r="U3" s="0"/>
-      <c r="V3" s="0"/>
-      <c r="W3" s="0"/>
+      <c r="U3" s="18" t="n">
+        <f aca="false">VLOOKUP(U2,$A$2:$K$10,8)</f>
+        <v>4</v>
+      </c>
+      <c r="V3" s="19" t="n">
+        <f aca="false">W4-W1</f>
+        <v>8</v>
+      </c>
+      <c r="W3" s="20"/>
       <c r="X3" s="0"/>
       <c r="Y3" s="0"/>
       <c r="Z3" s="0"/>
       <c r="AA3" s="0"/>
       <c r="AB3" s="0"/>
       <c r="AC3" s="0"/>
-      <c r="AD3" s="0"/>
+      <c r="AD3" s="23"/>
       <c r="AE3" s="0"/>
       <c r="AF3" s="0"/>
       <c r="AG3" s="0"/>
@@ -755,48 +867,66 @@
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10" t="n">
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="I4" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="12" t="n">
+      <c r="I4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="13" t="n">
         <f aca="false">ROUND(H4/(I4*J4),0)</f>
         <v>3</v>
       </c>
-      <c r="O4" s="20"/>
+      <c r="O4" s="24" t="n">
+        <f aca="false">Q4-O3</f>
+        <v>0</v>
+      </c>
       <c r="P4" s="7"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="0"/>
-      <c r="S4" s="0"/>
+      <c r="Q4" s="25" t="n">
+        <f aca="false">MIN(U4,U10,U16)</f>
+        <v>6</v>
+      </c>
+      <c r="R4" s="22"/>
+      <c r="S4" s="26"/>
       <c r="T4" s="0"/>
-      <c r="U4" s="0"/>
-      <c r="V4" s="0"/>
-      <c r="W4" s="0"/>
+      <c r="U4" s="24" t="n">
+        <f aca="false">W4-U3</f>
+        <v>14</v>
+      </c>
+      <c r="V4" s="7"/>
+      <c r="W4" s="25" t="n">
+        <f aca="false">AE7</f>
+        <v>18</v>
+      </c>
       <c r="X4" s="0"/>
       <c r="Y4" s="0"/>
       <c r="Z4" s="0"/>
       <c r="AA4" s="0"/>
       <c r="AB4" s="0"/>
       <c r="AC4" s="0"/>
-      <c r="AD4" s="0"/>
-      <c r="AE4" s="0"/>
-      <c r="AF4" s="0"/>
-      <c r="AG4" s="0"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="6" t="n">
+        <f aca="false">MAX(W1,AB7)</f>
+        <v>18</v>
+      </c>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="8" t="n">
+        <f aca="false">AE4+AE6</f>
+        <v>19</v>
+      </c>
       <c r="AH4" s="0"/>
       <c r="AI4" s="0"/>
       <c r="AJ4" s="0"/>
@@ -807,31 +937,31 @@
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14" t="n">
-        <v>6</v>
-      </c>
-      <c r="I5" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="16" t="n">
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="I5" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="17" t="n">
         <f aca="false">ROUND(H5/(I5*J5),0)</f>
         <v>6</v>
       </c>
-      <c r="R5" s="0"/>
-      <c r="S5" s="0"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
       <c r="T5" s="0"/>
       <c r="U5" s="0"/>
       <c r="V5" s="0"/>
@@ -843,9 +973,11 @@
       <c r="AB5" s="0"/>
       <c r="AC5" s="0"/>
       <c r="AD5" s="0"/>
-      <c r="AE5" s="0"/>
-      <c r="AF5" s="0"/>
-      <c r="AG5" s="0"/>
+      <c r="AE5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="14"/>
       <c r="AH5" s="0"/>
       <c r="AI5" s="0"/>
       <c r="AJ5" s="0"/>
@@ -856,31 +988,31 @@
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10" t="n">
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="I6" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="12" t="n">
+      <c r="I6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="13" t="n">
         <f aca="false">ROUND(H6/(I6*J6),0)</f>
         <v>3</v>
       </c>
-      <c r="R6" s="0"/>
-      <c r="S6" s="0"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
       <c r="T6" s="0"/>
       <c r="U6" s="0"/>
       <c r="V6" s="0"/>
@@ -892,10 +1024,16 @@
       <c r="AB6" s="0"/>
       <c r="AC6" s="0"/>
       <c r="AD6" s="0"/>
-      <c r="AE6" s="0"/>
-      <c r="AF6" s="0"/>
-      <c r="AG6" s="0"/>
-      <c r="AH6" s="0"/>
+      <c r="AE6" s="18" t="n">
+        <f aca="false">VLOOKUP(AE5,$A$2:$K$10,8)</f>
+        <v>1</v>
+      </c>
+      <c r="AF6" s="19" t="n">
+        <f aca="false">AG7-AG4</f>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="22"/>
       <c r="AI6" s="0"/>
       <c r="AJ6" s="0"/>
       <c r="AK6" s="0"/>
@@ -905,46 +1043,64 @@
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14" t="s">
+      <c r="B7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14" t="n">
-        <v>6</v>
-      </c>
-      <c r="I7" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="16" t="n">
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="I7" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="17" t="n">
         <f aca="false">ROUND(H7/(I7*J7),0)</f>
         <v>6</v>
       </c>
-      <c r="R7" s="0"/>
-      <c r="S7" s="0"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
       <c r="T7" s="0"/>
-      <c r="U7" s="0"/>
-      <c r="V7" s="0"/>
-      <c r="W7" s="0"/>
+      <c r="U7" s="6" t="n">
+        <f aca="false">Q1</f>
+        <v>6</v>
+      </c>
+      <c r="V7" s="7"/>
+      <c r="W7" s="8" t="n">
+        <f aca="false">U7+U9</f>
+        <v>12</v>
+      </c>
       <c r="X7" s="0"/>
       <c r="Y7" s="0"/>
-      <c r="Z7" s="0"/>
-      <c r="AA7" s="0"/>
-      <c r="AB7" s="0"/>
-      <c r="AC7" s="0"/>
-      <c r="AD7" s="0"/>
-      <c r="AE7" s="0"/>
-      <c r="AF7" s="0"/>
-      <c r="AG7" s="0"/>
-      <c r="AH7" s="0"/>
+      <c r="Z7" s="6" t="n">
+        <f aca="false">W7</f>
+        <v>12</v>
+      </c>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="8" t="n">
+        <f aca="false">Z7+Z9</f>
+        <v>18</v>
+      </c>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="28"/>
+      <c r="AE7" s="24" t="n">
+        <f aca="false">AG7-AE6</f>
+        <v>18</v>
+      </c>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="25" t="n">
+        <f aca="false">AJ11</f>
+        <v>19</v>
+      </c>
+      <c r="AH7" s="26"/>
       <c r="AI7" s="0"/>
       <c r="AJ7" s="0"/>
       <c r="AK7" s="0"/>
@@ -954,90 +1110,112 @@
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="12" t="n">
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="13" t="n">
         <f aca="false">ROUND(H8/(I8*J8),0)</f>
         <v>1</v>
       </c>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0"/>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
-      <c r="AB8" s="0"/>
-      <c r="AC8" s="0"/>
-      <c r="AD8" s="0"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="23"/>
       <c r="AE8" s="0"/>
       <c r="AF8" s="0"/>
       <c r="AG8" s="0"/>
-      <c r="AH8" s="0"/>
-      <c r="AI8" s="0"/>
-      <c r="AJ8" s="0"/>
-      <c r="AK8" s="0"/>
-      <c r="AL8" s="0"/>
+      <c r="AH8" s="26"/>
+      <c r="AI8" s="9"/>
+      <c r="AJ8" s="6" t="n">
+        <f aca="false">MAX(AG4,AG13)</f>
+        <v>19</v>
+      </c>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="8" t="n">
+        <f aca="false">AJ8+AJ10</f>
+        <v>28</v>
+      </c>
     </row>
     <row r="9" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14" t="n">
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="I9" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="16" t="n">
+      <c r="I9" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="R9" s="0"/>
+      <c r="R9" s="26"/>
       <c r="S9" s="0"/>
       <c r="T9" s="0"/>
-      <c r="U9" s="0"/>
-      <c r="V9" s="0"/>
-      <c r="W9" s="0"/>
+      <c r="U9" s="18" t="n">
+        <f aca="false">VLOOKUP(U8,$A$2:$K$10,8)</f>
+        <v>6</v>
+      </c>
+      <c r="V9" s="19" t="n">
+        <f aca="false">W10-W7</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="20"/>
       <c r="X9" s="0"/>
       <c r="Y9" s="0"/>
-      <c r="Z9" s="0"/>
-      <c r="AA9" s="0"/>
-      <c r="AB9" s="0"/>
+      <c r="Z9" s="18" t="n">
+        <f aca="false">VLOOKUP(Z8,$A$2:$K$10,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AA9" s="19" t="n">
+        <f aca="false">AB10-AB7</f>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="20"/>
       <c r="AC9" s="0"/>
       <c r="AD9" s="0"/>
       <c r="AE9" s="0"/>
@@ -1045,73 +1223,139 @@
       <c r="AG9" s="0"/>
       <c r="AH9" s="0"/>
       <c r="AI9" s="0"/>
-      <c r="AJ9" s="0"/>
-      <c r="AK9" s="0"/>
-      <c r="AL9" s="0"/>
+      <c r="AJ9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK9" s="14"/>
+      <c r="AL9" s="14"/>
     </row>
     <row r="10" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10" t="n">
+      <c r="D10" s="11"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="I10" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="12" t="n">
+      <c r="I10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="13" t="n">
         <f aca="false">ROUND(H10/(I10*J10),0)</f>
         <v>9</v>
       </c>
-      <c r="R10" s="0"/>
+      <c r="R10" s="26"/>
       <c r="S10" s="0"/>
       <c r="T10" s="0"/>
-      <c r="U10" s="0"/>
-      <c r="V10" s="0"/>
-      <c r="W10" s="0"/>
+      <c r="U10" s="24" t="n">
+        <f aca="false">W10-U9</f>
+        <v>6</v>
+      </c>
+      <c r="V10" s="7"/>
+      <c r="W10" s="25" t="n">
+        <f aca="false">Z10</f>
+        <v>12</v>
+      </c>
       <c r="X10" s="0"/>
       <c r="Y10" s="0"/>
-      <c r="Z10" s="0"/>
-      <c r="AA10" s="0"/>
-      <c r="AB10" s="0"/>
+      <c r="Z10" s="24" t="n">
+        <f aca="false">AB10-Z9</f>
+        <v>12</v>
+      </c>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="25" t="n">
+        <f aca="false">AE7</f>
+        <v>18</v>
+      </c>
       <c r="AC10" s="0"/>
       <c r="AD10" s="0"/>
       <c r="AE10" s="0"/>
       <c r="AF10" s="0"/>
       <c r="AG10" s="0"/>
       <c r="AH10" s="0"/>
-      <c r="AI10" s="0"/>
-      <c r="AJ10" s="0"/>
-      <c r="AK10" s="0"/>
-      <c r="AL10" s="0"/>
+      <c r="AI10" s="9"/>
+      <c r="AJ10" s="18" t="n">
+        <f aca="false">VLOOKUP(AJ9,$A$2:$K$10,8)</f>
+        <v>9</v>
+      </c>
+      <c r="AK10" s="19" t="n">
+        <f aca="false">AL11-AL8</f>
+        <v>0</v>
+      </c>
+      <c r="AL10" s="20"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R11" s="26"/>
+      <c r="AH11" s="26"/>
+      <c r="AJ11" s="24" t="n">
+        <f aca="false">AL11-AJ10</f>
+        <v>19</v>
+      </c>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="25" t="n">
+        <f aca="false">AL8</f>
+        <v>28</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="R12" s="26"/>
+      <c r="AH12" s="26"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R13" s="26"/>
+      <c r="U13" s="6" t="n">
+        <f aca="false">Q1</f>
+        <v>6</v>
+      </c>
+      <c r="V13" s="7"/>
+      <c r="W13" s="8" t="n">
+        <f aca="false">U13+U15</f>
+        <v>9</v>
+      </c>
+      <c r="Z13" s="6" t="n">
+        <f aca="false">W13</f>
+        <v>9</v>
+      </c>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="8" t="n">
+        <f aca="false">Z13+Z15</f>
+        <v>12</v>
+      </c>
+      <c r="AE13" s="6" t="n">
+        <f aca="false">AB13</f>
+        <v>12</v>
+      </c>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="8" t="n">
+        <f aca="false">AE13+AE15</f>
+        <v>14</v>
+      </c>
+      <c r="AH13" s="26"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="1" t="s">
@@ -1120,6 +1364,87 @@
       <c r="D14" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="R14" s="26"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="30"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U15" s="18" t="n">
+        <f aca="false">VLOOKUP(U14,$A$2:$K$10,8)</f>
+        <v>3</v>
+      </c>
+      <c r="V15" s="19" t="n">
+        <f aca="false">W16-W13</f>
+        <v>5</v>
+      </c>
+      <c r="W15" s="20"/>
+      <c r="Z15" s="18" t="n">
+        <f aca="false">VLOOKUP(Z14,$A$2:$K$10,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AA15" s="19" t="n">
+        <f aca="false">AB16-AB13</f>
+        <v>5</v>
+      </c>
+      <c r="AB15" s="20"/>
+      <c r="AE15" s="18" t="n">
+        <f aca="false">VLOOKUP(AE14,$A$2:$K$10,8)</f>
+        <v>2</v>
+      </c>
+      <c r="AF15" s="19" t="n">
+        <f aca="false">AG16-AG13</f>
+        <v>5</v>
+      </c>
+      <c r="AG15" s="20"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U16" s="24" t="n">
+        <f aca="false">W16-U15</f>
+        <v>11</v>
+      </c>
+      <c r="V16" s="7"/>
+      <c r="W16" s="25" t="n">
+        <f aca="false">Z16</f>
+        <v>14</v>
+      </c>
+      <c r="Z16" s="24" t="n">
+        <f aca="false">AB16-Z15</f>
+        <v>14</v>
+      </c>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="25" t="n">
+        <f aca="false">AE16</f>
+        <v>17</v>
+      </c>
+      <c r="AE16" s="24" t="n">
+        <f aca="false">AG16-AE15</f>
+        <v>17</v>
+      </c>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="25" t="n">
+        <f aca="false">AJ11</f>
+        <v>19</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J18" s="1"/>
@@ -1134,13 +1459,21 @@
       <c r="J21" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="12">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="AE5:AG5"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="AJ9:AL9"/>
     <mergeCell ref="A12:K12"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="Z14:AB14"/>
+    <mergeCell ref="AE14:AG14"/>
   </mergeCells>
-  <conditionalFormatting sqref="P3">
+  <conditionalFormatting sqref="AK10 AF6 AF15 AA15 AA9 V9 V15 V3 P3">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
@@ -1168,34 +1501,34 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="3.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="23" width="10.58"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="23" width="3.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="24" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="23" width="8.48"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="23" width="3.83"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="31" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="31" width="10.58"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="31" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="32" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="31" width="8.48"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="31" width="3.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="34" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="6"/>
@@ -1230,31 +1563,31 @@
       <c r="AL1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="28" t="n">
+      <c r="D2" s="36" t="n">
         <v>3</v>
       </c>
-      <c r="E2" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="32" t="n">
+      <c r="E2" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="40" t="n">
         <f aca="false">ROUNDUP(D2/(E2*F2),0)</f>
         <v>3</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
       <c r="L2" s="0"/>
       <c r="M2" s="0"/>
       <c r="N2" s="0"/>
@@ -1284,34 +1617,34 @@
       <c r="AL2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="32" t="n">
+      <c r="D3" s="40" t="n">
         <v>4</v>
       </c>
-      <c r="E3" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="32" t="n">
+      <c r="E3" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="40" t="n">
         <f aca="false">ROUNDUP(D3/(E3*F3),0)</f>
         <v>4</v>
       </c>
-      <c r="I3" s="17" t="n">
+      <c r="I3" s="18" t="n">
         <f aca="false">VLOOKUP(I2,$A$2:$G$8,7)</f>
         <v>3</v>
       </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="20"/>
       <c r="L3" s="0"/>
       <c r="M3" s="0"/>
       <c r="N3" s="0"/>
@@ -1341,31 +1674,31 @@
       <c r="AL3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="32" t="n">
+      <c r="C4" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="40" t="n">
         <v>3</v>
       </c>
-      <c r="E4" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="32" t="n">
+      <c r="E4" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="40" t="n">
         <f aca="false">ROUNDUP(D4/(E4*F4),0)</f>
         <v>3</v>
       </c>
-      <c r="I4" s="20"/>
+      <c r="I4" s="24"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="21"/>
+      <c r="K4" s="25"/>
       <c r="L4" s="0"/>
       <c r="M4" s="0"/>
       <c r="N4" s="0"/>
@@ -1395,25 +1728,25 @@
       <c r="AL4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="32" t="s">
+      <c r="A5" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="32" t="n">
+      <c r="D5" s="40" t="n">
         <v>2</v>
       </c>
-      <c r="E5" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="32" t="n">
+      <c r="E5" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="40" t="n">
         <f aca="false">ROUNDUP(D5/(E5*F5),0)</f>
         <v>2</v>
       </c>
@@ -1446,25 +1779,25 @@
       <c r="AL5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="32" t="s">
+      <c r="B6" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="32" t="n">
+      <c r="D6" s="40" t="n">
         <v>9</v>
       </c>
-      <c r="E6" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="32" t="n">
+      <c r="E6" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="40" t="n">
         <f aca="false">ROUNDUP(D6/(E6*F6),0)</f>
         <v>9</v>
       </c>
@@ -1497,25 +1830,25 @@
       <c r="AL6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="32" t="s">
+      <c r="B7" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="32" t="n">
+      <c r="D7" s="40" t="n">
         <v>2</v>
       </c>
-      <c r="E7" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="32" t="n">
+      <c r="E7" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="40" t="n">
         <f aca="false">ROUNDUP(D7/(E7*F7),0)</f>
         <v>2</v>
       </c>
@@ -1548,23 +1881,23 @@
       <c r="AL7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="33" t="n">
-        <v>6</v>
-      </c>
-      <c r="E8" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="32" t="n">
+      <c r="C8" s="42"/>
+      <c r="D8" s="41" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="40" t="n">
         <f aca="false">ROUNDUP(D8/(E8*F8),0)</f>
         <v>6</v>
       </c>
@@ -1629,10 +1962,10 @@
       <c r="AL9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="31" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="1"/>

--- a/Übungen/Netzplan_Übung_3.xlsx
+++ b/Übungen/Netzplan_Übung_3.xlsx
@@ -662,16 +662,16 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="11" ySplit="0" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AI14" activeCellId="0" sqref="AI14"/>
+      <selection pane="topRight" activeCell="U3" activeCellId="0" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="6.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="7.23"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="8" min="8" style="1" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="9" min="9" style="1" width="4.6"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="10" min="10" style="2" width="7.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="8" min="8" style="1" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="9" min="9" style="1" width="4.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="10" min="10" style="2" width="7.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="3.24"/>
   </cols>
   <sheetData>
@@ -707,19 +707,19 @@
       <c r="P1" s="7"/>
       <c r="Q1" s="8" t="n">
         <f aca="false">O1+O3</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R1" s="9"/>
       <c r="S1" s="9"/>
       <c r="T1" s="9"/>
       <c r="U1" s="6" t="n">
         <f aca="false">Q1</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V1" s="7"/>
       <c r="W1" s="8" t="n">
         <f aca="false">U1+U3</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="X1" s="0"/>
       <c r="Y1" s="0"/>
@@ -761,14 +761,14 @@
         <v>6</v>
       </c>
       <c r="I2" s="11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2" s="12" t="n">
         <v>1</v>
       </c>
       <c r="K2" s="13" t="n">
         <f aca="false">ROUND(H2/(I2*J2),0)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O2" s="14" t="s">
         <v>7</v>
@@ -820,15 +820,15 @@
         <v>1</v>
       </c>
       <c r="J3" s="16" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K3" s="17" t="n">
         <f aca="false">ROUND(H3/(I3*J3),0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O3" s="18" t="n">
-        <f aca="false">VLOOKUP(O2,$A$2:$K$10,8)</f>
-        <v>6</v>
+        <f aca="false">VLOOKUP(O2,$A$2:$K$10,11)</f>
+        <v>2</v>
       </c>
       <c r="P3" s="19" t="n">
         <f aca="false">Q4-Q1</f>
@@ -839,12 +839,12 @@
       <c r="S3" s="22"/>
       <c r="T3" s="0"/>
       <c r="U3" s="18" t="n">
-        <f aca="false">VLOOKUP(U2,$A$2:$K$10,8)</f>
-        <v>4</v>
+        <f aca="false">VLOOKUP(U2,$A$2:$K$10,11)</f>
+        <v>5</v>
       </c>
       <c r="V3" s="19" t="n">
         <f aca="false">W4-W1</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W3" s="20"/>
       <c r="X3" s="0"/>
@@ -897,19 +897,19 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="25" t="n">
         <f aca="false">MIN(U4,U10,U16)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R4" s="22"/>
       <c r="S4" s="26"/>
       <c r="T4" s="0"/>
       <c r="U4" s="24" t="n">
         <f aca="false">W4-U3</f>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="V4" s="7"/>
       <c r="W4" s="25" t="n">
         <f aca="false">AE7</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="X4" s="0"/>
       <c r="Y4" s="0"/>
@@ -920,12 +920,12 @@
       <c r="AD4" s="27"/>
       <c r="AE4" s="6" t="n">
         <f aca="false">MAX(W1,AB7)</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AF4" s="7"/>
       <c r="AG4" s="8" t="n">
         <f aca="false">AE4+AE6</f>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AH4" s="0"/>
       <c r="AI4" s="0"/>
@@ -1025,7 +1025,7 @@
       <c r="AC6" s="0"/>
       <c r="AD6" s="0"/>
       <c r="AE6" s="18" t="n">
-        <f aca="false">VLOOKUP(AE5,$A$2:$K$10,8)</f>
+        <f aca="false">VLOOKUP(AE5,$A$2:$K$10,11)</f>
         <v>1</v>
       </c>
       <c r="AF6" s="19" t="n">
@@ -1071,34 +1071,34 @@
       <c r="T7" s="0"/>
       <c r="U7" s="6" t="n">
         <f aca="false">Q1</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V7" s="7"/>
       <c r="W7" s="8" t="n">
         <f aca="false">U7+U9</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="X7" s="0"/>
       <c r="Y7" s="0"/>
       <c r="Z7" s="6" t="n">
         <f aca="false">W7</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AA7" s="7"/>
       <c r="AB7" s="8" t="n">
         <f aca="false">Z7+Z9</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AC7" s="23"/>
       <c r="AD7" s="28"/>
       <c r="AE7" s="24" t="n">
         <f aca="false">AG7-AE6</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AF7" s="7"/>
       <c r="AG7" s="25" t="n">
         <f aca="false">AJ11</f>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AH7" s="26"/>
       <c r="AI7" s="0"/>
@@ -1159,12 +1159,12 @@
       <c r="AI8" s="9"/>
       <c r="AJ8" s="6" t="n">
         <f aca="false">MAX(AG4,AG13)</f>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AK8" s="7"/>
       <c r="AL8" s="8" t="n">
         <f aca="false">AJ8+AJ10</f>
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1197,7 +1197,7 @@
       <c r="S9" s="0"/>
       <c r="T9" s="0"/>
       <c r="U9" s="18" t="n">
-        <f aca="false">VLOOKUP(U8,$A$2:$K$10,8)</f>
+        <f aca="false">VLOOKUP(U8,$A$2:$K$10,11)</f>
         <v>6</v>
       </c>
       <c r="V9" s="19" t="n">
@@ -1208,7 +1208,7 @@
       <c r="X9" s="0"/>
       <c r="Y9" s="0"/>
       <c r="Z9" s="18" t="n">
-        <f aca="false">VLOOKUP(Z8,$A$2:$K$10,8)</f>
+        <f aca="false">VLOOKUP(Z8,$A$2:$K$10,11)</f>
         <v>6</v>
       </c>
       <c r="AA9" s="19" t="n">
@@ -1247,37 +1247,37 @@
         <v>9</v>
       </c>
       <c r="I10" s="11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10" s="12" t="n">
         <v>1</v>
       </c>
       <c r="K10" s="13" t="n">
         <f aca="false">ROUND(H10/(I10*J10),0)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="R10" s="26"/>
       <c r="S10" s="0"/>
       <c r="T10" s="0"/>
       <c r="U10" s="24" t="n">
         <f aca="false">W10-U9</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V10" s="7"/>
       <c r="W10" s="25" t="n">
         <f aca="false">Z10</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="X10" s="0"/>
       <c r="Y10" s="0"/>
       <c r="Z10" s="24" t="n">
         <f aca="false">AB10-Z9</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AA10" s="7"/>
       <c r="AB10" s="25" t="n">
         <f aca="false">AE7</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AC10" s="0"/>
       <c r="AD10" s="0"/>
@@ -1287,8 +1287,8 @@
       <c r="AH10" s="0"/>
       <c r="AI10" s="9"/>
       <c r="AJ10" s="18" t="n">
-        <f aca="false">VLOOKUP(AJ9,$A$2:$K$10,8)</f>
-        <v>9</v>
+        <f aca="false">VLOOKUP(AJ9,$A$2:$K$10,11)</f>
+        <v>3</v>
       </c>
       <c r="AK10" s="19" t="n">
         <f aca="false">AL11-AL8</f>
@@ -1301,12 +1301,12 @@
       <c r="AH11" s="26"/>
       <c r="AJ11" s="24" t="n">
         <f aca="false">AL11-AJ10</f>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AK11" s="7"/>
       <c r="AL11" s="25" t="n">
         <f aca="false">AL8</f>
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1330,30 +1330,30 @@
       <c r="R13" s="26"/>
       <c r="U13" s="6" t="n">
         <f aca="false">Q1</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V13" s="7"/>
       <c r="W13" s="8" t="n">
         <f aca="false">U13+U15</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Z13" s="6" t="n">
         <f aca="false">W13</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AA13" s="7"/>
       <c r="AB13" s="8" t="n">
         <f aca="false">Z13+Z15</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AE13" s="6" t="n">
         <f aca="false">AB13</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AF13" s="7"/>
       <c r="AG13" s="8" t="n">
         <f aca="false">AE13+AE15</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AH13" s="26"/>
     </row>
@@ -1390,7 +1390,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="U15" s="18" t="n">
-        <f aca="false">VLOOKUP(U14,$A$2:$K$10,8)</f>
+        <f aca="false">VLOOKUP(U14,$A$2:$K$10,11)</f>
         <v>3</v>
       </c>
       <c r="V15" s="19" t="n">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="W15" s="20"/>
       <c r="Z15" s="18" t="n">
-        <f aca="false">VLOOKUP(Z14,$A$2:$K$10,8)</f>
+        <f aca="false">VLOOKUP(Z14,$A$2:$K$10,11)</f>
         <v>3</v>
       </c>
       <c r="AA15" s="19" t="n">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="AB15" s="20"/>
       <c r="AE15" s="18" t="n">
-        <f aca="false">VLOOKUP(AE14,$A$2:$K$10,8)</f>
+        <f aca="false">VLOOKUP(AE14,$A$2:$K$10,11)</f>
         <v>2</v>
       </c>
       <c r="AF15" s="19" t="n">
@@ -1420,30 +1420,30 @@
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="U16" s="24" t="n">
         <f aca="false">W16-U15</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="V16" s="7"/>
       <c r="W16" s="25" t="n">
         <f aca="false">Z16</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="Z16" s="24" t="n">
         <f aca="false">AB16-Z15</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AA16" s="7"/>
       <c r="AB16" s="25" t="n">
         <f aca="false">AE16</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE16" s="24" t="n">
         <f aca="false">AG16-AE15</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF16" s="7"/>
       <c r="AG16" s="25" t="n">
         <f aca="false">AJ11</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Übungen/Netzplan_Übung_3.xlsx
+++ b/Übungen/Netzplan_Übung_3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="23">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -659,10 +659,10 @@
   </sheetPr>
   <dimension ref="A1:AL21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="11" ySplit="0" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="U3" activeCellId="0" sqref="U3"/>
+      <selection pane="topRight" activeCell="O4" activeCellId="0" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -719,7 +719,7 @@
       <c r="V1" s="7"/>
       <c r="W1" s="8" t="n">
         <f aca="false">U1+U3</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X1" s="0"/>
       <c r="Y1" s="0"/>
@@ -820,11 +820,11 @@
         <v>1</v>
       </c>
       <c r="J3" s="16" t="n">
-        <v>0.75</v>
+        <v>0.65</v>
       </c>
       <c r="K3" s="17" t="n">
         <f aca="false">ROUND(H3/(I3*J3),0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O3" s="18" t="n">
         <f aca="false">VLOOKUP(O2,$A$2:$K$10,11)</f>
@@ -840,11 +840,11 @@
       <c r="T3" s="0"/>
       <c r="U3" s="18" t="n">
         <f aca="false">VLOOKUP(U2,$A$2:$K$10,11)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V3" s="19" t="n">
         <f aca="false">W4-W1</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="W3" s="20"/>
       <c r="X3" s="0"/>
@@ -904,12 +904,12 @@
       <c r="T4" s="0"/>
       <c r="U4" s="24" t="n">
         <f aca="false">W4-U3</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="V4" s="7"/>
       <c r="W4" s="25" t="n">
         <f aca="false">AE7</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="X4" s="0"/>
       <c r="Y4" s="0"/>
@@ -920,12 +920,12 @@
       <c r="AD4" s="27"/>
       <c r="AE4" s="6" t="n">
         <f aca="false">MAX(W1,AB7)</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AF4" s="7"/>
       <c r="AG4" s="8" t="n">
         <f aca="false">AE4+AE6</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AH4" s="0"/>
       <c r="AI4" s="0"/>
@@ -954,11 +954,11 @@
         <v>1</v>
       </c>
       <c r="J5" s="16" t="n">
-        <v>1</v>
+        <v>1.35</v>
       </c>
       <c r="K5" s="17" t="n">
         <f aca="false">ROUND(H5/(I5*J5),0)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R5" s="26"/>
       <c r="S5" s="26"/>
@@ -1060,11 +1060,11 @@
         <v>1</v>
       </c>
       <c r="J7" s="16" t="n">
-        <v>1</v>
+        <v>1.35</v>
       </c>
       <c r="K7" s="17" t="n">
         <f aca="false">ROUND(H7/(I7*J7),0)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R7" s="26"/>
       <c r="S7" s="26"/>
@@ -1076,29 +1076,29 @@
       <c r="V7" s="7"/>
       <c r="W7" s="8" t="n">
         <f aca="false">U7+U9</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X7" s="0"/>
       <c r="Y7" s="0"/>
       <c r="Z7" s="6" t="n">
         <f aca="false">W7</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AA7" s="7"/>
       <c r="AB7" s="8" t="n">
         <f aca="false">Z7+Z9</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AC7" s="23"/>
       <c r="AD7" s="28"/>
       <c r="AE7" s="24" t="n">
         <f aca="false">AG7-AE6</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AF7" s="7"/>
       <c r="AG7" s="25" t="n">
         <f aca="false">AJ11</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AH7" s="26"/>
       <c r="AI7" s="0"/>
@@ -1159,12 +1159,12 @@
       <c r="AI8" s="9"/>
       <c r="AJ8" s="6" t="n">
         <f aca="false">MAX(AG4,AG13)</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AK8" s="7"/>
       <c r="AL8" s="8" t="n">
         <f aca="false">AJ8+AJ10</f>
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1198,7 +1198,7 @@
       <c r="T9" s="0"/>
       <c r="U9" s="18" t="n">
         <f aca="false">VLOOKUP(U8,$A$2:$K$10,11)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V9" s="19" t="n">
         <f aca="false">W10-W7</f>
@@ -1209,7 +1209,7 @@
       <c r="Y9" s="0"/>
       <c r="Z9" s="18" t="n">
         <f aca="false">VLOOKUP(Z8,$A$2:$K$10,11)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AA9" s="19" t="n">
         <f aca="false">AB10-AB7</f>
@@ -1266,18 +1266,18 @@
       <c r="V10" s="7"/>
       <c r="W10" s="25" t="n">
         <f aca="false">Z10</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X10" s="0"/>
       <c r="Y10" s="0"/>
       <c r="Z10" s="24" t="n">
         <f aca="false">AB10-Z9</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AA10" s="7"/>
       <c r="AB10" s="25" t="n">
         <f aca="false">AE7</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AC10" s="0"/>
       <c r="AD10" s="0"/>
@@ -1301,12 +1301,12 @@
       <c r="AH11" s="26"/>
       <c r="AJ11" s="24" t="n">
         <f aca="false">AL11-AJ10</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AK11" s="7"/>
       <c r="AL11" s="25" t="n">
         <f aca="false">AL8</f>
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="V15" s="19" t="n">
         <f aca="false">W16-W13</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W15" s="20"/>
       <c r="Z15" s="18" t="n">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="AA15" s="19" t="n">
         <f aca="false">AB16-AB13</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB15" s="20"/>
       <c r="AE15" s="18" t="n">
@@ -1413,37 +1413,37 @@
       </c>
       <c r="AF15" s="19" t="n">
         <f aca="false">AG16-AG13</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AG15" s="20"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="U16" s="24" t="n">
         <f aca="false">W16-U15</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="V16" s="7"/>
       <c r="W16" s="25" t="n">
         <f aca="false">Z16</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Z16" s="24" t="n">
         <f aca="false">AB16-Z15</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AA16" s="7"/>
       <c r="AB16" s="25" t="n">
         <f aca="false">AE16</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE16" s="24" t="n">
         <f aca="false">AG16-AE15</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AF16" s="7"/>
       <c r="AG16" s="25" t="n">
         <f aca="false">AJ11</f>
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1495,8 +1495,8 @@
   </sheetPr>
   <dimension ref="A1:AL16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1531,19 +1531,36 @@
       <c r="G1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6"/>
+      <c r="I1" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="J1" s="7"/>
-      <c r="K1" s="8"/>
+      <c r="K1" s="8" t="n">
+        <f aca="false">I1+I3</f>
+        <v>3</v>
+      </c>
       <c r="L1" s="0"/>
       <c r="M1" s="0"/>
-      <c r="N1" s="0"/>
-      <c r="O1" s="0"/>
-      <c r="P1" s="0"/>
+      <c r="N1" s="6" t="n">
+        <f aca="false">K1</f>
+        <v>3</v>
+      </c>
+      <c r="O1" s="7"/>
+      <c r="P1" s="8" t="n">
+        <f aca="false">N1+N3</f>
+        <v>7</v>
+      </c>
       <c r="Q1" s="0"/>
       <c r="R1" s="0"/>
-      <c r="S1" s="0"/>
-      <c r="T1" s="0"/>
-      <c r="U1" s="0"/>
+      <c r="S1" s="6" t="n">
+        <f aca="false">P1</f>
+        <v>7</v>
+      </c>
+      <c r="T1" s="7"/>
+      <c r="U1" s="8" t="n">
+        <f aca="false">S1+S3</f>
+        <v>10</v>
+      </c>
       <c r="V1" s="0"/>
       <c r="W1" s="0"/>
       <c r="X1" s="0"/>
@@ -1588,16 +1605,20 @@
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
-      <c r="L2" s="0"/>
-      <c r="M2" s="0"/>
-      <c r="N2" s="0"/>
-      <c r="O2" s="0"/>
-      <c r="P2" s="0"/>
-      <c r="Q2" s="0"/>
-      <c r="R2" s="0"/>
-      <c r="S2" s="0"/>
-      <c r="T2" s="0"/>
-      <c r="U2" s="0"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
       <c r="V2" s="0"/>
       <c r="W2" s="0"/>
       <c r="X2" s="0"/>
@@ -1643,28 +1664,49 @@
         <f aca="false">VLOOKUP(I2,$A$2:$G$8,7)</f>
         <v>3</v>
       </c>
-      <c r="J3" s="19"/>
+      <c r="J3" s="19" t="n">
+        <f aca="false">K4-K1</f>
+        <v>0</v>
+      </c>
       <c r="K3" s="20"/>
       <c r="L3" s="0"/>
       <c r="M3" s="0"/>
-      <c r="N3" s="0"/>
-      <c r="O3" s="0"/>
-      <c r="P3" s="0"/>
+      <c r="N3" s="18" t="n">
+        <f aca="false">VLOOKUP(N2,$A$2:$G$8,7)</f>
+        <v>4</v>
+      </c>
+      <c r="O3" s="19" t="n">
+        <f aca="false">P4-P1</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="20"/>
       <c r="Q3" s="0"/>
       <c r="R3" s="0"/>
-      <c r="S3" s="0"/>
-      <c r="T3" s="0"/>
-      <c r="U3" s="0"/>
-      <c r="V3" s="0"/>
+      <c r="S3" s="18" t="n">
+        <f aca="false">VLOOKUP(S2,$A$2:$G$8,7)</f>
+        <v>3</v>
+      </c>
+      <c r="T3" s="19" t="n">
+        <f aca="false">U4-U1</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="20"/>
+      <c r="V3" s="22"/>
       <c r="W3" s="0"/>
       <c r="X3" s="0"/>
       <c r="Y3" s="0"/>
       <c r="Z3" s="0"/>
       <c r="AA3" s="0"/>
       <c r="AB3" s="0"/>
-      <c r="AC3" s="0"/>
-      <c r="AD3" s="0"/>
-      <c r="AE3" s="0"/>
+      <c r="AC3" s="6" t="n">
+        <f aca="false">Z6</f>
+        <v>12</v>
+      </c>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="8" t="n">
+        <f aca="false">AC3+AC5</f>
+        <v>21</v>
+      </c>
       <c r="AF3" s="0"/>
       <c r="AG3" s="0"/>
       <c r="AH3" s="0"/>
@@ -1696,29 +1738,49 @@
         <f aca="false">ROUNDUP(D4/(E4*F4),0)</f>
         <v>3</v>
       </c>
-      <c r="I4" s="24"/>
+      <c r="I4" s="24" t="n">
+        <f aca="false">K4-I3</f>
+        <v>0</v>
+      </c>
       <c r="J4" s="7"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="0"/>
+      <c r="K4" s="25" t="n">
+        <f aca="false">MIN(N4,X9)</f>
+        <v>3</v>
+      </c>
+      <c r="L4" s="22"/>
       <c r="M4" s="0"/>
-      <c r="N4" s="0"/>
-      <c r="O4" s="0"/>
-      <c r="P4" s="0"/>
+      <c r="N4" s="24" t="n">
+        <f aca="false">P4-N3</f>
+        <v>3</v>
+      </c>
+      <c r="O4" s="7"/>
+      <c r="P4" s="25" t="n">
+        <f aca="false">S4</f>
+        <v>7</v>
+      </c>
       <c r="Q4" s="0"/>
       <c r="R4" s="0"/>
-      <c r="S4" s="0"/>
-      <c r="T4" s="0"/>
-      <c r="U4" s="0"/>
-      <c r="V4" s="0"/>
+      <c r="S4" s="24" t="n">
+        <f aca="false">U4-S3</f>
+        <v>7</v>
+      </c>
+      <c r="T4" s="7"/>
+      <c r="U4" s="25" t="n">
+        <f aca="false">X9</f>
+        <v>10</v>
+      </c>
+      <c r="V4" s="26"/>
       <c r="W4" s="0"/>
       <c r="X4" s="0"/>
       <c r="Y4" s="0"/>
       <c r="Z4" s="0"/>
       <c r="AA4" s="0"/>
-      <c r="AB4" s="0"/>
-      <c r="AC4" s="0"/>
-      <c r="AD4" s="0"/>
-      <c r="AE4" s="0"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
       <c r="AF4" s="0"/>
       <c r="AG4" s="0"/>
       <c r="AH4" s="0"/>
@@ -1750,7 +1812,7 @@
         <f aca="false">ROUNDUP(D5/(E5*F5),0)</f>
         <v>2</v>
       </c>
-      <c r="L5" s="0"/>
+      <c r="L5" s="26"/>
       <c r="M5" s="0"/>
       <c r="N5" s="0"/>
       <c r="O5" s="0"/>
@@ -1760,17 +1822,23 @@
       <c r="S5" s="0"/>
       <c r="T5" s="0"/>
       <c r="U5" s="0"/>
-      <c r="V5" s="0"/>
+      <c r="V5" s="26"/>
       <c r="W5" s="0"/>
       <c r="X5" s="0"/>
       <c r="Y5" s="0"/>
       <c r="Z5" s="0"/>
-      <c r="AA5" s="0"/>
+      <c r="AA5" s="26"/>
       <c r="AB5" s="0"/>
-      <c r="AC5" s="0"/>
-      <c r="AD5" s="0"/>
-      <c r="AE5" s="0"/>
-      <c r="AF5" s="0"/>
+      <c r="AC5" s="18" t="n">
+        <f aca="false">VLOOKUP(AC4,$A$2:$G$8,7)</f>
+        <v>9</v>
+      </c>
+      <c r="AD5" s="19" t="n">
+        <f aca="false">AE6-AE3</f>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="22"/>
       <c r="AG5" s="0"/>
       <c r="AH5" s="0"/>
       <c r="AI5" s="0"/>
@@ -1801,7 +1869,7 @@
         <f aca="false">ROUNDUP(D6/(E6*F6),0)</f>
         <v>9</v>
       </c>
-      <c r="L6" s="0"/>
+      <c r="L6" s="26"/>
       <c r="M6" s="0"/>
       <c r="N6" s="0"/>
       <c r="O6" s="0"/>
@@ -1811,21 +1879,39 @@
       <c r="S6" s="0"/>
       <c r="T6" s="0"/>
       <c r="U6" s="0"/>
-      <c r="V6" s="0"/>
-      <c r="W6" s="0"/>
-      <c r="X6" s="0"/>
-      <c r="Y6" s="0"/>
-      <c r="Z6" s="0"/>
-      <c r="AA6" s="0"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="6" t="n">
+        <f aca="false">MAX(K1,U1)</f>
+        <v>10</v>
+      </c>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="8" t="n">
+        <f aca="false">X6+X8</f>
+        <v>12</v>
+      </c>
+      <c r="AA6" s="30"/>
       <c r="AB6" s="0"/>
-      <c r="AC6" s="0"/>
-      <c r="AD6" s="0"/>
-      <c r="AE6" s="0"/>
-      <c r="AF6" s="0"/>
+      <c r="AC6" s="24" t="n">
+        <f aca="false">AE6-AC5</f>
+        <v>12</v>
+      </c>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="25" t="n">
+        <f aca="false">AH9</f>
+        <v>21</v>
+      </c>
+      <c r="AF6" s="26"/>
       <c r="AG6" s="0"/>
-      <c r="AH6" s="0"/>
-      <c r="AI6" s="0"/>
-      <c r="AJ6" s="0"/>
+      <c r="AH6" s="6" t="n">
+        <f aca="false">MAX(AE3,AE9)</f>
+        <v>21</v>
+      </c>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="8" t="n">
+        <f aca="false">AH6+AH8</f>
+        <v>27</v>
+      </c>
       <c r="AK6" s="0"/>
       <c r="AL6" s="1"/>
     </row>
@@ -1852,31 +1938,35 @@
         <f aca="false">ROUNDUP(D7/(E7*F7),0)</f>
         <v>2</v>
       </c>
-      <c r="L7" s="0"/>
-      <c r="M7" s="0"/>
-      <c r="N7" s="0"/>
-      <c r="O7" s="0"/>
-      <c r="P7" s="0"/>
-      <c r="Q7" s="0"/>
-      <c r="R7" s="0"/>
-      <c r="S7" s="0"/>
-      <c r="T7" s="0"/>
-      <c r="U7" s="0"/>
-      <c r="V7" s="0"/>
-      <c r="W7" s="0"/>
-      <c r="X7" s="0"/>
-      <c r="Y7" s="0"/>
-      <c r="Z7" s="0"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
       <c r="AA7" s="0"/>
       <c r="AB7" s="0"/>
       <c r="AC7" s="0"/>
       <c r="AD7" s="0"/>
       <c r="AE7" s="0"/>
       <c r="AF7" s="0"/>
-      <c r="AG7" s="0"/>
-      <c r="AH7" s="0"/>
-      <c r="AI7" s="0"/>
-      <c r="AJ7" s="0"/>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
       <c r="AK7" s="0"/>
       <c r="AL7" s="1"/>
     </row>
@@ -1913,19 +2003,31 @@
       <c r="U8" s="0"/>
       <c r="V8" s="0"/>
       <c r="W8" s="0"/>
-      <c r="X8" s="0"/>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
+      <c r="X8" s="18" t="n">
+        <f aca="false">VLOOKUP(X7,$A$2:$G$8,7)</f>
+        <v>2</v>
+      </c>
+      <c r="Y8" s="19" t="n">
+        <f aca="false">Z9-Z6</f>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="20"/>
       <c r="AA8" s="0"/>
       <c r="AB8" s="0"/>
       <c r="AC8" s="0"/>
       <c r="AD8" s="0"/>
       <c r="AE8" s="0"/>
       <c r="AF8" s="0"/>
-      <c r="AG8" s="0"/>
-      <c r="AH8" s="0"/>
-      <c r="AI8" s="0"/>
-      <c r="AJ8" s="0"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="18" t="n">
+        <f aca="false">VLOOKUP(AH7,$A$2:$G$8,7)</f>
+        <v>6</v>
+      </c>
+      <c r="AI8" s="19" t="n">
+        <f aca="false">AJ9-AJ6</f>
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="20"/>
       <c r="AK8" s="0"/>
       <c r="AL8" s="1"/>
     </row>
@@ -1945,19 +2047,37 @@
       <c r="U9" s="0"/>
       <c r="V9" s="0"/>
       <c r="W9" s="0"/>
-      <c r="X9" s="0"/>
-      <c r="Y9" s="0"/>
-      <c r="Z9" s="0"/>
-      <c r="AA9" s="0"/>
+      <c r="X9" s="24" t="n">
+        <f aca="false">Z9-X8</f>
+        <v>10</v>
+      </c>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="25" t="n">
+        <f aca="false">MIN(AC6,AC12)</f>
+        <v>12</v>
+      </c>
+      <c r="AA9" s="22"/>
       <c r="AB9" s="0"/>
-      <c r="AC9" s="0"/>
-      <c r="AD9" s="0"/>
-      <c r="AE9" s="0"/>
-      <c r="AF9" s="0"/>
+      <c r="AC9" s="6" t="n">
+        <f aca="false">Z6</f>
+        <v>12</v>
+      </c>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="8" t="n">
+        <f aca="false">AC9+AC11</f>
+        <v>14</v>
+      </c>
+      <c r="AF9" s="26"/>
       <c r="AG9" s="0"/>
-      <c r="AH9" s="0"/>
-      <c r="AI9" s="0"/>
-      <c r="AJ9" s="0"/>
+      <c r="AH9" s="24" t="n">
+        <f aca="false">AJ9-AH8</f>
+        <v>21</v>
+      </c>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="25" t="n">
+        <f aca="false">AJ6</f>
+        <v>27</v>
+      </c>
       <c r="AK9" s="0"/>
       <c r="AL9" s="1"/>
     </row>
@@ -1986,12 +2106,14 @@
       <c r="X10" s="0"/>
       <c r="Y10" s="0"/>
       <c r="Z10" s="0"/>
-      <c r="AA10" s="0"/>
-      <c r="AB10" s="0"/>
-      <c r="AC10" s="0"/>
-      <c r="AD10" s="0"/>
-      <c r="AE10" s="0"/>
-      <c r="AF10" s="0"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="30"/>
       <c r="AG10" s="0"/>
       <c r="AH10" s="0"/>
       <c r="AI10" s="0"/>
@@ -2017,9 +2139,15 @@
       <c r="Z11" s="0"/>
       <c r="AA11" s="0"/>
       <c r="AB11" s="0"/>
-      <c r="AC11" s="0"/>
-      <c r="AD11" s="0"/>
-      <c r="AE11" s="0"/>
+      <c r="AC11" s="18" t="n">
+        <f aca="false">VLOOKUP(AC10,$A$2:$G$8,7)</f>
+        <v>2</v>
+      </c>
+      <c r="AD11" s="19" t="n">
+        <f aca="false">AE12-AE9</f>
+        <v>7</v>
+      </c>
+      <c r="AE11" s="20"/>
       <c r="AF11" s="0"/>
       <c r="AG11" s="0"/>
       <c r="AH11" s="0"/>
@@ -2028,9 +2156,15 @@
       <c r="AK11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
+      <c r="AC12" s="24" t="n">
+        <f aca="false">AE12-AC11</f>
+        <v>19</v>
+      </c>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="25" t="n">
+        <f aca="false">AH9</f>
+        <v>21</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AC13" s="1"/>
@@ -2053,10 +2187,16 @@
       <c r="AE16" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="7">
     <mergeCell ref="I2:K2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="AC10:AE10"/>
   </mergeCells>
-  <conditionalFormatting sqref="J3">
+  <conditionalFormatting sqref="AI8 AD11 AD5 Y8 T3 O3 J3">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>

--- a/Übungen/Netzplan_Übung_3.xlsx
+++ b/Übungen/Netzplan_Übung_3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
@@ -659,10 +659,10 @@
   </sheetPr>
   <dimension ref="A1:AL21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="11" ySplit="0" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="O4" activeCellId="0" sqref="O4"/>
+      <selection pane="topRight" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -1495,8 +1495,8 @@
   </sheetPr>
   <dimension ref="A1:AL16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1537,29 +1537,29 @@
       <c r="J1" s="7"/>
       <c r="K1" s="8" t="n">
         <f aca="false">I1+I3</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L1" s="0"/>
       <c r="M1" s="0"/>
       <c r="N1" s="6" t="n">
         <f aca="false">K1</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O1" s="7"/>
       <c r="P1" s="8" t="n">
         <f aca="false">N1+N3</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q1" s="0"/>
       <c r="R1" s="0"/>
       <c r="S1" s="6" t="n">
         <f aca="false">P1</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="T1" s="7"/>
       <c r="U1" s="8" t="n">
         <f aca="false">S1+S3</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="V1" s="0"/>
       <c r="W1" s="0"/>
@@ -1591,14 +1591,14 @@
         <v>3</v>
       </c>
       <c r="E2" s="38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2" s="39" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="40" t="n">
         <f aca="false">ROUNDUP(D2/(E2*F2),0)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>7</v>
@@ -1651,18 +1651,18 @@
         <v>4</v>
       </c>
       <c r="E3" s="38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" s="39" t="n">
         <v>1</v>
       </c>
       <c r="G3" s="40" t="n">
         <f aca="false">ROUNDUP(D3/(E3*F3),0)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I3" s="18" t="n">
         <f aca="false">VLOOKUP(I2,$A$2:$G$8,7)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" s="19" t="n">
         <f aca="false">K4-K1</f>
@@ -1673,7 +1673,7 @@
       <c r="M3" s="0"/>
       <c r="N3" s="18" t="n">
         <f aca="false">VLOOKUP(N2,$A$2:$G$8,7)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O3" s="19" t="n">
         <f aca="false">P4-P1</f>
@@ -1684,7 +1684,7 @@
       <c r="R3" s="0"/>
       <c r="S3" s="18" t="n">
         <f aca="false">VLOOKUP(S2,$A$2:$G$8,7)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T3" s="19" t="n">
         <f aca="false">U4-U1</f>
@@ -1700,12 +1700,12 @@
       <c r="AB3" s="0"/>
       <c r="AC3" s="6" t="n">
         <f aca="false">Z6</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AD3" s="7"/>
       <c r="AE3" s="8" t="n">
         <f aca="false">AC3+AC5</f>
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="AF3" s="0"/>
       <c r="AG3" s="0"/>
@@ -1729,14 +1729,14 @@
         <v>3</v>
       </c>
       <c r="E4" s="38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" s="39" t="n">
         <v>1</v>
       </c>
       <c r="G4" s="40" t="n">
         <f aca="false">ROUNDUP(D4/(E4*F4),0)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4" s="24" t="n">
         <f aca="false">K4-I3</f>
@@ -1745,29 +1745,29 @@
       <c r="J4" s="7"/>
       <c r="K4" s="25" t="n">
         <f aca="false">MIN(N4,X9)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4" s="22"/>
       <c r="M4" s="0"/>
       <c r="N4" s="24" t="n">
         <f aca="false">P4-N3</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O4" s="7"/>
       <c r="P4" s="25" t="n">
         <f aca="false">S4</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q4" s="0"/>
       <c r="R4" s="0"/>
       <c r="S4" s="24" t="n">
         <f aca="false">U4-S3</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="T4" s="7"/>
       <c r="U4" s="25" t="n">
         <f aca="false">X9</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="V4" s="26"/>
       <c r="W4" s="0"/>
@@ -1803,14 +1803,14 @@
         <v>2</v>
       </c>
       <c r="E5" s="38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" s="39" t="n">
         <v>1</v>
       </c>
       <c r="G5" s="40" t="n">
         <f aca="false">ROUNDUP(D5/(E5*F5),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5" s="26"/>
       <c r="M5" s="0"/>
@@ -1831,7 +1831,7 @@
       <c r="AB5" s="0"/>
       <c r="AC5" s="18" t="n">
         <f aca="false">VLOOKUP(AC4,$A$2:$G$8,7)</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AD5" s="19" t="n">
         <f aca="false">AE6-AE3</f>
@@ -1860,14 +1860,14 @@
         <v>9</v>
       </c>
       <c r="E6" s="38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="39" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="G6" s="40" t="n">
         <f aca="false">ROUNDUP(D6/(E6*F6),0)</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="L6" s="26"/>
       <c r="M6" s="0"/>
@@ -1883,34 +1883,34 @@
       <c r="W6" s="9"/>
       <c r="X6" s="6" t="n">
         <f aca="false">MAX(K1,U1)</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Y6" s="7"/>
       <c r="Z6" s="8" t="n">
         <f aca="false">X6+X8</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AA6" s="30"/>
       <c r="AB6" s="0"/>
       <c r="AC6" s="24" t="n">
         <f aca="false">AE6-AC5</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AD6" s="7"/>
       <c r="AE6" s="25" t="n">
         <f aca="false">AH9</f>
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="AF6" s="26"/>
       <c r="AG6" s="0"/>
       <c r="AH6" s="6" t="n">
         <f aca="false">MAX(AE3,AE9)</f>
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="AI6" s="7"/>
       <c r="AJ6" s="8" t="n">
         <f aca="false">AH6+AH8</f>
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="AK6" s="0"/>
       <c r="AL6" s="1"/>
@@ -1932,11 +1932,11 @@
         <v>1</v>
       </c>
       <c r="F7" s="39" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G7" s="40" t="n">
         <f aca="false">ROUNDUP(D7/(E7*F7),0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7" s="26"/>
       <c r="M7" s="9"/>
@@ -1982,14 +1982,14 @@
         <v>6</v>
       </c>
       <c r="E8" s="38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" s="39" t="n">
         <v>1</v>
       </c>
       <c r="G8" s="40" t="n">
         <f aca="false">ROUNDUP(D8/(E8*F8),0)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L8" s="0"/>
       <c r="M8" s="0"/>
@@ -2005,7 +2005,7 @@
       <c r="W8" s="0"/>
       <c r="X8" s="18" t="n">
         <f aca="false">VLOOKUP(X7,$A$2:$G$8,7)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="19" t="n">
         <f aca="false">Z9-Z6</f>
@@ -2021,7 +2021,7 @@
       <c r="AG8" s="9"/>
       <c r="AH8" s="18" t="n">
         <f aca="false">VLOOKUP(AH7,$A$2:$G$8,7)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AI8" s="19" t="n">
         <f aca="false">AJ9-AJ6</f>
@@ -2049,34 +2049,34 @@
       <c r="W9" s="0"/>
       <c r="X9" s="24" t="n">
         <f aca="false">Z9-X8</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Y9" s="7"/>
       <c r="Z9" s="25" t="n">
         <f aca="false">MIN(AC6,AC12)</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AA9" s="22"/>
       <c r="AB9" s="0"/>
       <c r="AC9" s="6" t="n">
         <f aca="false">Z6</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AD9" s="7"/>
       <c r="AE9" s="8" t="n">
         <f aca="false">AC9+AC11</f>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AF9" s="26"/>
       <c r="AG9" s="0"/>
       <c r="AH9" s="24" t="n">
         <f aca="false">AJ9-AH8</f>
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="AI9" s="7"/>
       <c r="AJ9" s="25" t="n">
         <f aca="false">AJ6</f>
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="AK9" s="0"/>
       <c r="AL9" s="1"/>
@@ -2141,11 +2141,11 @@
       <c r="AB11" s="0"/>
       <c r="AC11" s="18" t="n">
         <f aca="false">VLOOKUP(AC10,$A$2:$G$8,7)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD11" s="19" t="n">
         <f aca="false">AE12-AE9</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AE11" s="20"/>
       <c r="AF11" s="0"/>
@@ -2158,12 +2158,12 @@
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AC12" s="24" t="n">
         <f aca="false">AE12-AC11</f>
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="AD12" s="7"/>
       <c r="AE12" s="25" t="n">
         <f aca="false">AH9</f>
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
